--- a/VISHWANATH_TAWARE_MT.xlsx
+++ b/VISHWANATH_TAWARE_MT.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SEED_PROGRAMING_SDET_COURSE\SEED_SDET_COURSE_MANUAL_TESTING\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F11FDD2-9931-4524-8D60-45D117E77FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,37 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Test_Case_ID</t>
+  </si>
+  <si>
+    <t>Test_Case_Objective</t>
+  </si>
+  <si>
+    <t>Pre_Requisite</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Actual_Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +64,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +86,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +395,374 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VISHWANATH_TAWARE_MT.xlsx
+++ b/VISHWANATH_TAWARE_MT.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SEED_PROGRAMING_SDET_COURSE\SEED_SDET_COURSE_MANUAL_TESTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishwanathtaware/STUDY/SEED_SDET_COURSE_MANUAL_TESTING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F11FDD2-9931-4524-8D60-45D117E77FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401197F4-C7C0-0447-AF23-DDEFEC361D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="15_June_2024_Online_Shopping" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>Test_Case_ID</t>
   </si>
@@ -49,16 +49,222 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>MT_01</t>
+  </si>
+  <si>
+    <t>User should be able to view the items in the catlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit the home page of the website </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>MT_02</t>
+  </si>
+  <si>
+    <t>MT_03</t>
+  </si>
+  <si>
+    <t>MT_04</t>
+  </si>
+  <si>
+    <t>MT_05</t>
+  </si>
+  <si>
+    <t>MT_06</t>
+  </si>
+  <si>
+    <t>MT_07</t>
+  </si>
+  <si>
+    <t>MT_08</t>
+  </si>
+  <si>
+    <t>MT_09</t>
+  </si>
+  <si>
+    <t>MT_10</t>
+  </si>
+  <si>
+    <t>MT_11</t>
+  </si>
+  <si>
+    <t>MT_12</t>
+  </si>
+  <si>
+    <t>User should be redirected to item detailed information page</t>
+  </si>
+  <si>
+    <t>Click on the thumbnail image or the item from the list</t>
+  </si>
+  <si>
+    <t>To check if the frequently purchase items are displayed or not</t>
+  </si>
+  <si>
+    <t>User Registration and User Login should be made</t>
+  </si>
+  <si>
+    <t>User id : vishwa Password: Pass@123</t>
+  </si>
+  <si>
+    <t>Application Link :</t>
+  </si>
+  <si>
+    <t>Catlog Name : Electronics</t>
+  </si>
+  <si>
+    <t>The app should display the the all electronics product</t>
+  </si>
+  <si>
+    <t>Item Name: iPad</t>
+  </si>
+  <si>
+    <t>Items Page Link :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detailed information about the ipad should be dsiplayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The app should display the the frequnetly purchased item </t>
+  </si>
+  <si>
+    <t>To check if admin can perform Update, Delete, Add Operations on items in catlog</t>
+  </si>
+  <si>
+    <t>Admin Login Link :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit the admin login page of the website </t>
+  </si>
+  <si>
+    <t>Admin should be able to perform Update, Delete, Add Operations on items in catlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check the cart item update intimation to user </t>
+  </si>
+  <si>
+    <t>Admin Login Link : User Login Link :</t>
+  </si>
+  <si>
+    <t>Add the item from catlog in the user cart.
+Visit the admin login page of the website remove the item from catlog 
+Visit the user cart again after removing the item from catlog.</t>
+  </si>
+  <si>
+    <t>Admin:
+User id : vishwa Password: Pass@123
+User :
+User id : vishwa Password: Pass@123</t>
+  </si>
+  <si>
+    <t>User should get an intimation that the product is no longer available that he has added in cart</t>
+  </si>
+  <si>
+    <t>To check if admin can perform Update Operation on items in catlog</t>
+  </si>
+  <si>
+    <t>Admin should be able to perform Update Operations on items in catlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check if item Qty is getting updated or not as per sale or as per admin update </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit the item page check the initial qty.
+Update the same product qty through admin panel 
+Visit the item page again and see the qty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The item page must see the updated Qty </t>
+  </si>
+  <si>
+    <t>To check if the user can select the items in the cart</t>
+  </si>
+  <si>
+    <t>User Registration and User Login should be made
+User Login Link :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login as user and add some item in the cart check if the item is slected or not and check the same for the multiple items also </t>
+  </si>
+  <si>
+    <t>The user should be able select the items on the cart as well as select the multiple item in the cart</t>
+  </si>
+  <si>
+    <t>To check if the user can remove the items in the cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login as user and add some item in the cart , remove the added item in the cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should get an pop for confirmation to remove the item from the cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check if user can select the billing and delivery address on the checkout section </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login as user add some item in the cart and proceed to checkout and select the billing address and delivery address </t>
+  </si>
+  <si>
+    <t>The user should be able to select the billing address as well as the delivery address</t>
+  </si>
+  <si>
+    <t>To check payment gateway selection</t>
+  </si>
+  <si>
+    <t>Add items in cart proced to checkout and move to payments page later on select the payment gateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should be able to select the payment gateway of his choice </t>
+  </si>
+  <si>
+    <t>MT_13</t>
+  </si>
+  <si>
+    <t>To check payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add items in cart proced to checkout and move to payments page later on select the payment gateway and make payment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should be able to select the payment gateway of his choice and make payment the user should get payment confiramtion page  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check bill/invoice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit the order page check last order make select on the order details and click invoice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to see invoice and get option to download </t>
+  </si>
+  <si>
+    <t>MT_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email/ SMS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should get an email/ SMS about the order placed </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,14 +313,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,372 +602,603 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/VISHWANATH_TAWARE_MT.xlsx
+++ b/VISHWANATH_TAWARE_MT.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishwanathtaware/STUDY/SEED_SDET_COURSE_MANUAL_TESTING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401197F4-C7C0-0447-AF23-DDEFEC361D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EB6381-18A3-4D43-A540-BB9B23D57EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15_June_2024_Online_Shopping" sheetId="1" r:id="rId1"/>
+    <sheet name="15_June_2024_Lift" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
   <si>
     <t>Test_Case_ID</t>
   </si>
@@ -249,6 +250,33 @@
   </si>
   <si>
     <t xml:space="preserve">User should get an email/ SMS about the order placed </t>
+  </si>
+  <si>
+    <t>Sr.No</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>To check the clsoing and opening of the lift button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check the buttons outside the lift </t>
+  </si>
+  <si>
+    <t>To check the buttons inside the lift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check the emergency stop buttons </t>
+  </si>
+  <si>
+    <t>To check the functioning of intercom of lift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check the light and fan of the lift </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To check the weight capacity sesnor of the lift </t>
   </si>
 </sst>
 </file>
@@ -602,10 +630,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1011,195 +1040,91 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E35" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D95DB7-1D98-144F-9A37-4BD914EBCC5C}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="39.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VISHWANATH_TAWARE_MT.xlsx
+++ b/VISHWANATH_TAWARE_MT.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishwanathtaware/STUDY/SEED_SDET_COURSE_MANUAL_TESTING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EB6381-18A3-4D43-A540-BB9B23D57EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A89CCD7-8D73-E049-A7B0-FCFBEBCC667E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15_June_2024_Online_Shopping" sheetId="1" r:id="rId1"/>
     <sheet name="15_June_2024_Lift" sheetId="2" r:id="rId2"/>
+    <sheet name="17_June_2024_Library_Mind_Map" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
   <si>
     <t>Test_Case_ID</t>
   </si>
@@ -277,13 +278,59 @@
   </si>
   <si>
     <t xml:space="preserve"> To check the weight capacity sesnor of the lift </t>
+  </si>
+  <si>
+    <t>Library Management System Mind Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock Manager </t>
+  </si>
+  <si>
+    <t>Can add new book in the library stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can modify the records in the stock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoule be able to create reports using pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functionality </t>
+  </si>
+  <si>
+    <t>Business Logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Book Addition has predefined fields and format </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique code for Book id should be generated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISBN Number can be scanned </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reports : Total Stock at any time 
+New Book added , Montlhly Yearly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration Staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can enroll &amp; renew members </t>
+  </si>
+  <si>
+    <t>Membership Types : Citizens , Organizations , Staff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,8 +344,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,8 +366,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -335,11 +396,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -348,6 +446,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1051,7 +1164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D95DB7-1D98-144F-9A37-4BD914EBCC5C}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1127,4 +1240,242 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC16FDF-6887-F044-BEF0-8D8101C79B71}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="32.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="64.83203125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A4:A7"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/VISHWANATH_TAWARE_MT.xlsx
+++ b/VISHWANATH_TAWARE_MT.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishwanathtaware/STUDY/SEED_SDET_COURSE_MANUAL_TESTING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A89CCD7-8D73-E049-A7B0-FCFBEBCC667E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267AD74E-C37D-634D-A0B3-664819A18D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15_June_2024_Online_Shopping" sheetId="1" r:id="rId1"/>
     <sheet name="15_June_2024_Lift" sheetId="2" r:id="rId2"/>
-    <sheet name="17_June_2024_Library_Mind_Map" sheetId="3" r:id="rId3"/>
+    <sheet name="Execrise_2" sheetId="3" r:id="rId3"/>
+    <sheet name="Execrise_3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="136">
   <si>
     <t>Test_Case_ID</t>
   </si>
@@ -292,9 +293,6 @@
     <t xml:space="preserve">Can modify the records in the stock </t>
   </si>
   <si>
-    <t xml:space="preserve">Shoule be able to create reports using pdf </t>
-  </si>
-  <si>
     <t xml:space="preserve">User </t>
   </si>
   <si>
@@ -324,13 +322,139 @@
   </si>
   <si>
     <t>Membership Types : Citizens , Organizations , Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration details have prefered fields and format </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Different membership charges </t>
+  </si>
+  <si>
+    <t>Configure Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receipt Printing Facility </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If no renewal in 15 Days memebrship to get deactivated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be able to create reports using pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report: List of active members 
+Renewa Date </t>
+  </si>
+  <si>
+    <t>Can Print Memebrship Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have Predefined Fields </t>
+  </si>
+  <si>
+    <t>Librarian</t>
+  </si>
+  <si>
+    <t>Should be able to receive and issue book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book issue only to active memebers </t>
+  </si>
+  <si>
+    <t>Predefined field format for issue and return book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check the if the token is valid and cup is in the right position </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User has token , Machine is in active state </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert token in the machine
+Place the cup on the position </t>
+  </si>
+  <si>
+    <t>Coffee Token ,
+Coffee Mug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should be promted that token inserted and read sucessfully, cup is on its position </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check if the machine shows coffee type  </t>
+  </si>
+  <si>
+    <t>Coffee Type Displayed by Machine</t>
+  </si>
+  <si>
+    <t>Choose of the Coffee Type from Screen</t>
+  </si>
+  <si>
+    <t>Coffee Type</t>
+  </si>
+  <si>
+    <t>The user should be promted that coffee type selected sucessfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check if machine dispense coffee and shows message </t>
+  </si>
+  <si>
+    <t>Coffee Type should be chosen</t>
+  </si>
+  <si>
+    <t>The machine should display the dispensing meessage and after that coffee should be poured in the mug along with message on screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check that system exit if user presses cancel button </t>
+  </si>
+  <si>
+    <t>Token Should be accepted by machine</t>
+  </si>
+  <si>
+    <t>Press cancel button on coffee type screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The machine should exit after taking confirmation from the user </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check if the machine shows token wrong insertion error </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Token </t>
+  </si>
+  <si>
+    <t>Insert token half way to machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The machine should throw error that token is not inserted properly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check if machine shows time out error </t>
+  </si>
+  <si>
+    <t>Token inserted</t>
+  </si>
+  <si>
+    <t>Keep token inserted and don’t react to choose type machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The machine should time out after 1 min , beep and throw token out </t>
+  </si>
+  <si>
+    <t>MT_O7</t>
+  </si>
+  <si>
+    <t>The machine should show error selected item not avaiable and promt the choose type screen again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check machine response on ingredient not available </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,7 +470,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -437,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -451,7 +583,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -747,7 +882,7 @@
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1244,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC16FDF-6887-F044-BEF0-8D8101C79B71}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1257,12 +1392,12 @@
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -1273,10 +1408,10 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1287,195 +1422,373 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABC07EE-AEC0-974F-8821-D9DE9B4728AC}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VISHWANATH_TAWARE_MT.xlsx
+++ b/VISHWANATH_TAWARE_MT.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishwanathtaware/STUDY/SEED_SDET_COURSE_MANUAL_TESTING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267AD74E-C37D-634D-A0B3-664819A18D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDCBFF5-9E5C-7B47-81F3-1CFE67B5EE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15_June_2024_Online_Shopping" sheetId="1" r:id="rId1"/>
     <sheet name="15_June_2024_Lift" sheetId="2" r:id="rId2"/>
     <sheet name="Execrise_2" sheetId="3" r:id="rId3"/>
     <sheet name="Execrise_3" sheetId="4" r:id="rId4"/>
+    <sheet name="Exercise_4" sheetId="5" r:id="rId5"/>
+    <sheet name="Excerise_5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="174">
   <si>
     <t>Test_Case_ID</t>
   </si>
@@ -448,13 +450,127 @@
   </si>
   <si>
     <t xml:space="preserve">To check machine response on ingredient not available </t>
+  </si>
+  <si>
+    <t>Sr No</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User inserts wrong card/ uaccepted card </t>
+  </si>
+  <si>
+    <t>User inserts damaged card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User inserts another side of the card </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User inserts card midway </t>
+  </si>
+  <si>
+    <t>User enters amount as zero</t>
+  </si>
+  <si>
+    <t>Users enters amount in the multiple of ₹500,₹200,₹2000</t>
+  </si>
+  <si>
+    <t>User enters amount more than ₹25000</t>
+  </si>
+  <si>
+    <t>User cancels the withdraw process after entering amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User does not collect money after withdraw </t>
+  </si>
+  <si>
+    <t>User presses cancel button when asked for receipt</t>
+  </si>
+  <si>
+    <t>User does not collect receipt</t>
+  </si>
+  <si>
+    <t>User enters wrong pin</t>
+  </si>
+  <si>
+    <t>User cancels the withdraw process when asked for pin</t>
+  </si>
+  <si>
+    <t>Connection failure during any of the process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User tries to withdraw amount 4th time in 24 hours </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User does not remove the card </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User tries to enter amount in decimal format </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User tries to enter the amouunt more than the account balance </t>
+  </si>
+  <si>
+    <t>Receipt is printed blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disbursed Money is not same as the amount entered </t>
+  </si>
+  <si>
+    <t>Disbursed Money is damaged</t>
+  </si>
+  <si>
+    <t>User enters expired card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters pin less than or equal 3 digit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount is not withdrawn but debited message received </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMS not received </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account Balance is not updated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine Rejects the transation due to interal failure </t>
+  </si>
+  <si>
+    <t>Invalid Card Number</t>
+  </si>
+  <si>
+    <t>Invalid Card Name</t>
+  </si>
+  <si>
+    <t>Invalid CVV</t>
+  </si>
+  <si>
+    <t>Invalid Expiry Date</t>
+  </si>
+  <si>
+    <t>Invalid Month</t>
+  </si>
+  <si>
+    <t>Invalid Year</t>
+  </si>
+  <si>
+    <t>Invalid Flow</t>
+  </si>
+  <si>
+    <t>Network Interuption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Card </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +595,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -569,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -596,6 +720,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1299,7 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D95DB7-1D98-144F-9A37-4BD914EBCC5C}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1563,7 +1693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABC07EE-AEC0-974F-8821-D9DE9B4728AC}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -1791,4 +1921,347 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD23A6E-B376-C64C-8F40-9D855D9C0290}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="54" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF645EA-EF36-3E43-B6BD-C323E0451A37}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VISHWANATH_TAWARE_MT.xlsx
+++ b/VISHWANATH_TAWARE_MT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishwanathtaware/STUDY/SEED_SDET_COURSE_MANUAL_TESTING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDCBFF5-9E5C-7B47-81F3-1CFE67B5EE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2413D3-2D24-2843-BAA5-61AF05C552DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15_June_2024_Online_Shopping" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,30 @@
     <sheet name="Execrise_3" sheetId="4" r:id="rId4"/>
     <sheet name="Exercise_4" sheetId="5" r:id="rId5"/>
     <sheet name="Excerise_5" sheetId="6" r:id="rId6"/>
+    <sheet name="Excerise_6" sheetId="7" r:id="rId7"/>
+    <sheet name="Chapter_11" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="233">
   <si>
     <t>Test_Case_ID</t>
   </si>
@@ -564,13 +576,193 @@
   </si>
   <si>
     <t xml:space="preserve">Invalid Card </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session Expried </t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Requirement 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid </t>
+  </si>
+  <si>
+    <t>first_name@mail.com</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>$@mail.com</t>
+  </si>
+  <si>
+    <t>first_name@mail</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>$1@mail.com</t>
+  </si>
+  <si>
+    <t>mail.com</t>
+  </si>
+  <si>
+    <t>first_name@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first_name@mail .com </t>
+  </si>
+  <si>
+    <t>first_name@com</t>
+  </si>
+  <si>
+    <t>first_name@#mail.com</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>Data Value(Birth Date)</t>
+  </si>
+  <si>
+    <t>31st December 1998</t>
+  </si>
+  <si>
+    <t>BP, DIB, CA</t>
+  </si>
+  <si>
+    <t>BP,DIB</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>31st December 1951</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>DIB</t>
+  </si>
+  <si>
+    <t>DIB/BP , CA</t>
+  </si>
+  <si>
+    <t>1st January 1952</t>
+  </si>
+  <si>
+    <t>Cannot be insured</t>
+  </si>
+  <si>
+    <t>1st January 1999</t>
+  </si>
+  <si>
+    <t>Requirement 2</t>
+  </si>
+  <si>
+    <t>Requirement 3</t>
+  </si>
+  <si>
+    <t>Type of Customer</t>
+  </si>
+  <si>
+    <t>Shopping Amount</t>
+  </si>
+  <si>
+    <t>Expected Result (Reward Point Added)</t>
+  </si>
+  <si>
+    <t>Expected Result (Premium Amount)</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sr no </t>
+  </si>
+  <si>
+    <t>NUM 2</t>
+  </si>
+  <si>
+    <t>NUM 1</t>
+  </si>
+  <si>
+    <t>NUM 3</t>
+  </si>
+  <si>
+    <t>2(64)</t>
+  </si>
+  <si>
+    <t>2(65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Null </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sr No </t>
+  </si>
+  <si>
+    <t>User receives file of  7mb</t>
+  </si>
+  <si>
+    <t>User sends file of  7mb</t>
+  </si>
+  <si>
+    <t>User receives file less than  7mb</t>
+  </si>
+  <si>
+    <t>User sends file less than  7mb</t>
+  </si>
+  <si>
+    <t>User receives file greater than  7mb</t>
+  </si>
+  <si>
+    <t>User sends file greater than  7mb</t>
+  </si>
+  <si>
+    <t>User Receves greater than two file of 7mb</t>
+  </si>
+  <si>
+    <t>User Sends greater than two file of 7mb</t>
+  </si>
+  <si>
+    <t>User Receves greater than two file of less than 7mb</t>
+  </si>
+  <si>
+    <t>User Sends  greater than two file of less than 7mb</t>
+  </si>
+  <si>
+    <t>User Receves greater than two file of greater than 7mb</t>
+  </si>
+  <si>
+    <t>User Sends  greater than two file of greater than 7mb</t>
+  </si>
+  <si>
+    <t>User does not attach file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;₹&quot;#,##0_);[Red]\(&quot;₹&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,6 +800,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -629,7 +829,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -689,11 +889,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -710,6 +947,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -722,11 +976,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1523,11 +1816,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -1539,9 +1832,9 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1564,7 +1857,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1575,7 +1868,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>84</v>
       </c>
@@ -1584,7 +1877,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>100</v>
       </c>
@@ -1593,14 +1886,14 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="14" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1611,7 +1904,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="1" t="s">
         <v>98</v>
       </c>
@@ -1620,7 +1913,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="1" t="s">
         <v>100</v>
       </c>
@@ -1629,28 +1922,28 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="1" t="s">
         <v>102</v>
       </c>
@@ -1659,7 +1952,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1670,7 +1963,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>107</v>
@@ -1693,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABC07EE-AEC0-974F-8821-D9DE9B4728AC}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1925,10 +2218,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD23A6E-B376-C64C-8F40-9D855D9C0290}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1938,11 +2231,11 @@
     <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2066,7 +2359,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2074,7 +2367,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2082,7 +2375,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2090,7 +2383,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2098,7 +2391,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2106,7 +2399,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2114,16 +2407,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2131,7 +2423,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2139,7 +2431,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2147,7 +2439,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2155,7 +2447,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2170,10 +2462,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF645EA-EF36-3E43-B6BD-C323E0451A37}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2181,87 +2473,993 @@
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DCB945-2241-5948-BE79-AB8FF17D6DF6}">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="22"/>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="19"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" ht="66" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="11">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="11">
+        <f>D20-800</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="11">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="11">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="11">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="11">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="11">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="11">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="66" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34">
+        <v>750</v>
+      </c>
+      <c r="D34">
+        <f>E34*2</f>
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <f>C34/150</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35">
+        <v>7500</v>
+      </c>
+      <c r="D35">
+        <f>E35*2</f>
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <f>C35/150</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36">
+        <v>7501</v>
+      </c>
+      <c r="D36" s="12">
+        <f>E36*2</f>
+        <v>100.01333333333334</v>
+      </c>
+      <c r="E36" s="12">
+        <f>C36/150</f>
+        <v>50.006666666666668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37">
+        <v>750</v>
+      </c>
+      <c r="D37" s="12">
+        <f>C37/100</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38">
+        <v>10000</v>
+      </c>
+      <c r="D38" s="12">
+        <f>C38/100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39">
+        <v>10100</v>
+      </c>
+      <c r="D39" s="12">
+        <f>C39/100</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A18:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EACABF-1CBC-514F-8C37-668A541FC2E2}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="22" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="29">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0</v>
+      </c>
+      <c r="C3" s="29">
+        <v>0</v>
+      </c>
+      <c r="D3" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29">
+        <v>10</v>
+      </c>
+      <c r="C5" s="29">
+        <v>20</v>
+      </c>
+      <c r="D5" s="29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29">
+        <v>30</v>
+      </c>
+      <c r="C6" s="29">
+        <v>20</v>
+      </c>
+      <c r="D6" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29">
+        <v>20</v>
+      </c>
+      <c r="C7" s="29">
+        <v>30</v>
+      </c>
+      <c r="D7" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="29">
+        <v>0</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29">
+        <v>-1</v>
+      </c>
+      <c r="C11" s="29">
+        <v>12</v>
+      </c>
+      <c r="D11" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1</v>
+      </c>
+      <c r="D12" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="29">
+        <v>1</v>
+      </c>
+      <c r="D14" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="29">
+        <v>1</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="29">
+        <v>2</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="29">
+        <v>3</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="29">
+        <v>4</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="29">
+        <v>5</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="29">
+        <v>6</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="29">
+        <v>7</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="29">
+        <v>8</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="29">
+        <v>9</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="29">
+        <v>10</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="29">
+        <v>11</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="29">
+        <v>12</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="29">
+        <v>13</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VISHWANATH_TAWARE_MT.xlsx
+++ b/VISHWANATH_TAWARE_MT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishwanathtaware/STUDY/SEED_SDET_COURSE_MANUAL_TESTING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2413D3-2D24-2843-BAA5-61AF05C552DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA30EC6-A35F-6B4D-9F06-D64E95467F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15_June_2024_Online_Shopping" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Excerise_5" sheetId="6" r:id="rId6"/>
     <sheet name="Excerise_6" sheetId="7" r:id="rId7"/>
     <sheet name="Chapter_11" sheetId="8" r:id="rId8"/>
+    <sheet name="Excerise_7" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="377">
   <si>
     <t>Test_Case_ID</t>
   </si>
@@ -753,6 +754,438 @@
   </si>
   <si>
     <t>User does not attach file</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>Test Scenarios</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test pen on the paper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To insert new refill </t>
+  </si>
+  <si>
+    <t>To put on pen cap</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>To test pen without refill</t>
+  </si>
+  <si>
+    <t>To test pen on water</t>
+  </si>
+  <si>
+    <t>To drop pen on tip</t>
+  </si>
+  <si>
+    <t>To test pen without pen cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test pen from other side </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test pen without the back cap </t>
+  </si>
+  <si>
+    <t>Lead Pencil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test lead pencil on paper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Lead pencil written content by erasing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test lead pencil with another lead/ new lead </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test the lead pencil on the water </t>
+  </si>
+  <si>
+    <t>Test lead pencil without lead</t>
+  </si>
+  <si>
+    <t>Test lead pencil with another size lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test lead pencil with another side </t>
+  </si>
+  <si>
+    <t>Test Scenario (Functional)</t>
+  </si>
+  <si>
+    <t>Non Functional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the login functionlaity using valid credentials </t>
+  </si>
+  <si>
+    <t>To verify the mail compose functionality using valid data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the mail receving functionality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the draft functionality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the spam functionality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the move to inbox functionality </t>
+  </si>
+  <si>
+    <t>To verify the scheduled mail functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the trash functionality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the startered mail functionality </t>
+  </si>
+  <si>
+    <t>To verify the label functionality</t>
+  </si>
+  <si>
+    <t>To verify the mail signature functionality</t>
+  </si>
+  <si>
+    <t>To verify the auto reply functionlaity</t>
+  </si>
+  <si>
+    <t>To verify the mail attachment functionlaity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the CC &amp; BCC functionality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify search functionality </t>
+  </si>
+  <si>
+    <t>To verify the sort and filter functionality</t>
+  </si>
+  <si>
+    <t>To verify the attachment download fuctionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the file view functionality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the add to drive functionality </t>
+  </si>
+  <si>
+    <t>To verify the Unsubscribe functionality</t>
+  </si>
+  <si>
+    <t>To verify the login functionality using invalid credentials.</t>
+  </si>
+  <si>
+    <t>To verify the mail compose functionality using invalid data.</t>
+  </si>
+  <si>
+    <t>To verify the mail receiving functionality with corrupted mail data.</t>
+  </si>
+  <si>
+    <t>To verify the draft functionality with invalid email content.</t>
+  </si>
+  <si>
+    <t>To verify the spam functionality with non-spam email.</t>
+  </si>
+  <si>
+    <t>To verify the move to inbox functionality with unauthorized access.</t>
+  </si>
+  <si>
+    <t>To verify the scheduled mail functionality with incorrect scheduling format.</t>
+  </si>
+  <si>
+    <t>To verify the trash functionality with non-deletable emails.</t>
+  </si>
+  <si>
+    <t>To verify the starred mail functionality with unstarred emails.</t>
+  </si>
+  <si>
+    <t>To verify the label functionality with invalid label names.</t>
+  </si>
+  <si>
+    <t>To verify the mail signature functionality with oversized signatures.</t>
+  </si>
+  <si>
+    <t>To verify the auto-reply functionality with incorrect email address.</t>
+  </si>
+  <si>
+    <t>To verify the mail attachment functionality with unsupported file types.</t>
+  </si>
+  <si>
+    <t>To verify the CC &amp; BCC functionality with invalid email addresses.</t>
+  </si>
+  <si>
+    <t>To verify the search functionality with non-existent email content.</t>
+  </si>
+  <si>
+    <t>To verify the sort and filter functionality with incompatible criteria.</t>
+  </si>
+  <si>
+    <t>To verify the attachment download functionality with corrupted attachments.</t>
+  </si>
+  <si>
+    <t>To verify the file view functionality with unsupported file formats.</t>
+  </si>
+  <si>
+    <t>To verify the add to drive functionality with insufficient storage space.</t>
+  </si>
+  <si>
+    <t>To verify the unsubscribe functionality with invalid email lists.</t>
+  </si>
+  <si>
+    <t>GMAIL</t>
+  </si>
+  <si>
+    <t>FACEBOOK</t>
+  </si>
+  <si>
+    <t>To verify the login with phone number functionality with valid phone no</t>
+  </si>
+  <si>
+    <t>To verify the OTP functionality with valid OTP</t>
+  </si>
+  <si>
+    <t>To verify the add profile picture with valid file type</t>
+  </si>
+  <si>
+    <t>To verify the add cover picture with valid file type</t>
+  </si>
+  <si>
+    <t>To verify the add personal details with valid data</t>
+  </si>
+  <si>
+    <t>To verify the post picture functionality with valid data</t>
+  </si>
+  <si>
+    <t>To verify search functionality</t>
+  </si>
+  <si>
+    <t>To verify the add friend functionality</t>
+  </si>
+  <si>
+    <t>To verify the block user functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the page like functionality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify comment functionality </t>
+  </si>
+  <si>
+    <t>To verify the emoji functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the share post functionlaity </t>
+  </si>
+  <si>
+    <t>To verify the redirection functionality with valid link</t>
+  </si>
+  <si>
+    <t>To verify the user tagging functionality</t>
+  </si>
+  <si>
+    <t>To verify the check in at location functionality</t>
+  </si>
+  <si>
+    <t>To verify the video posting functionality</t>
+  </si>
+  <si>
+    <t>To verify the multiple photo post functionality</t>
+  </si>
+  <si>
+    <t>To verify the link posting functionality</t>
+  </si>
+  <si>
+    <t>To verify the login with phone number functionality using invalid phone number.</t>
+  </si>
+  <si>
+    <t>To verify the OTP functionality using invalid OTP.</t>
+  </si>
+  <si>
+    <t>To verify the add profile picture functionality using an unsupported file type.</t>
+  </si>
+  <si>
+    <t>To verify the add cover picture functionality using an unsupported file type.</t>
+  </si>
+  <si>
+    <t>To verify the add personal details functionality using invalid data.</t>
+  </si>
+  <si>
+    <t>To verify the post picture functionality using corrupted file data.</t>
+  </si>
+  <si>
+    <t>To verify the search functionality with non-existent user or page.</t>
+  </si>
+  <si>
+    <t>To verify the add friend functionality for blocked users.</t>
+  </si>
+  <si>
+    <t>To verify the block user functionality for non-existent users.</t>
+  </si>
+  <si>
+    <t>To verify the page like functionality on a restricted page.</t>
+  </si>
+  <si>
+    <t>To verify the comment functionality using offensive language.</t>
+  </si>
+  <si>
+    <t>To verify the emoji functionality using invalid or corrupted emoji data.</t>
+  </si>
+  <si>
+    <t>To verify the share post functionality with restricted posts.</t>
+  </si>
+  <si>
+    <t>To verify the redirection functionality with invalid link.</t>
+  </si>
+  <si>
+    <t>To verify the user tagging functionality with non-existent users.</t>
+  </si>
+  <si>
+    <t>To verify the check-in at location functionality with invalid location.</t>
+  </si>
+  <si>
+    <t>To verify the video posting functionality with unsupported video formats.</t>
+  </si>
+  <si>
+    <t>To verify the multiple photo post functionality with mixed file types.</t>
+  </si>
+  <si>
+    <t>To verify the link posting functionality with malicious or broken links.</t>
+  </si>
+  <si>
+    <t>WHATS APP</t>
+  </si>
+  <si>
+    <t>To verify the login functionality using valid phone number and OTP.</t>
+  </si>
+  <si>
+    <t>To verify the contact synchronization functionality using valid contact data.</t>
+  </si>
+  <si>
+    <t>To verify the chat functionality with valid text messages.</t>
+  </si>
+  <si>
+    <t>To verify the voice message functionality with valid audio files.</t>
+  </si>
+  <si>
+    <t>To verify the video call functionality with a strong internet connection.</t>
+  </si>
+  <si>
+    <t>To verify the group chat functionality by adding valid members.</t>
+  </si>
+  <si>
+    <t>To verify the media sharing functionality with valid images and videos.</t>
+  </si>
+  <si>
+    <t>To verify the status update functionality with valid text, images, and videos.</t>
+  </si>
+  <si>
+    <t>To verify the document sharing functionality with valid document files.</t>
+  </si>
+  <si>
+    <t>To verify the delete message functionality for both sender and receiver.</t>
+  </si>
+  <si>
+    <t>To verify the mute chat functionality for individual and group chats.</t>
+  </si>
+  <si>
+    <t>To verify the archive chat functionality for individual and group chats.</t>
+  </si>
+  <si>
+    <t>To verify the notification functionality for incoming messages.</t>
+  </si>
+  <si>
+    <t>To verify the change profile picture functionality with valid image files.</t>
+  </si>
+  <si>
+    <t>To verify the change status functionality with valid text.</t>
+  </si>
+  <si>
+    <t>To verify the broadcast message functionality with valid contacts.</t>
+  </si>
+  <si>
+    <t>To verify the search chat functionality with valid keywords.</t>
+  </si>
+  <si>
+    <t>To verify the backup chat functionality with a valid Google Drive account.</t>
+  </si>
+  <si>
+    <t>To verify the restore chat functionality from a valid backup.</t>
+  </si>
+  <si>
+    <t>To verify the two-step verification functionality with a valid PIN.</t>
+  </si>
+  <si>
+    <t>To verify the login functionality using invalid phone number or OTP.</t>
+  </si>
+  <si>
+    <t>To verify the contact synchronization functionality with corrupted contact data.</t>
+  </si>
+  <si>
+    <t>To verify the chat functionality with oversized text messages.</t>
+  </si>
+  <si>
+    <t>To verify the voice message functionality with unsupported audio formats.</t>
+  </si>
+  <si>
+    <t>To verify the video call functionality with a weak or no internet connection.</t>
+  </si>
+  <si>
+    <t>To verify the group chat functionality by adding invalid or non-existent members.</t>
+  </si>
+  <si>
+    <t>To verify the media sharing functionality with unsupported image or video formats.</t>
+  </si>
+  <si>
+    <t>To verify the status update functionality with unsupported file types.</t>
+  </si>
+  <si>
+    <t>To verify the document sharing functionality with corrupted or oversized files.</t>
+  </si>
+  <si>
+    <t>To verify the delete message functionality with expired messages.</t>
+  </si>
+  <si>
+    <t>To verify the mute chat functionality for non-existent chats.</t>
+  </si>
+  <si>
+    <t>To verify the archive chat functionality for non-existent chats.</t>
+  </si>
+  <si>
+    <t>To verify the notification functionality with app notifications turned off.</t>
+  </si>
+  <si>
+    <t>To verify the change profile picture functionality with unsupported file types.</t>
+  </si>
+  <si>
+    <t>To verify the change status functionality with restricted or offensive text.</t>
+  </si>
+  <si>
+    <t>To verify the broadcast message functionality with invalid or blocked contacts.</t>
+  </si>
+  <si>
+    <t>To verify the search chat functionality with non-existent keywords.</t>
+  </si>
+  <si>
+    <t>To verify the backup chat functionality with insufficient Google Drive storage.</t>
+  </si>
+  <si>
+    <t>To verify the restore chat functionality from an invalid or corrupted backup.</t>
+  </si>
+  <si>
+    <t>To verify the two-step verification functionality with an invalid or mismatched PIN.</t>
   </si>
 </sst>
 </file>
@@ -809,7 +1242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -828,8 +1261,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -926,11 +1371,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -964,6 +1427,24 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -985,20 +1466,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1009,17 +1478,47 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1304,8 +1803,8 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" activeCellId="1" sqref="D3 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1816,11 +2315,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -1832,9 +2331,9 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1857,7 +2356,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="20" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1868,7 +2367,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>84</v>
       </c>
@@ -1877,7 +2376,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>100</v>
       </c>
@@ -1886,14 +2385,14 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="20" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1904,7 +2403,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>98</v>
       </c>
@@ -1913,7 +2412,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>100</v>
       </c>
@@ -1922,28 +2421,28 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="1" t="s">
         <v>102</v>
       </c>
@@ -1952,7 +2451,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="20" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1963,7 +2462,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>107</v>
@@ -2571,7 +3070,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2584,24 +3083,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="15" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="25"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2612,10 +3111,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="25"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2703,24 +3202,24 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:6" ht="66" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="16" t="s">
         <v>207</v>
       </c>
       <c r="E19" s="10"/>
@@ -2854,10 +3353,10 @@
       <c r="B29" t="s">
         <v>199</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -2866,10 +3365,10 @@
       <c r="B30" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -2886,10 +3385,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="B32" s="19"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="66" x14ac:dyDescent="0.2">
@@ -3071,394 +3570,2975 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EACABF-1CBC-514F-8C37-668A541FC2E2}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView topLeftCell="A19" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="21"/>
+    <col min="1" max="4" width="10.83203125" style="14"/>
+    <col min="5" max="5" width="31" style="14" customWidth="1"/>
+    <col min="6" max="11" width="10.83203125" style="14"/>
+    <col min="12" max="12" width="57.83203125" style="14" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="17" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="18">
         <v>-1</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="18">
         <v>-1</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="18">
         <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="18">
         <v>0</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="18">
         <v>0</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="18">
         <v>1</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="18">
         <v>10</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="18">
         <v>20</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="18">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="18">
         <v>30</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="18">
         <v>20</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="18">
         <v>20</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="18">
         <v>30</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="18" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="18" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="18">
         <v>0</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="18">
         <v>1</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="18">
         <v>-1</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="18">
         <v>12</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="18">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="18">
         <v>1</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="18">
         <v>1</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="18">
         <v>1</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
+      <c r="A19" s="18">
         <v>1</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="18">
         <v>2</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+      <c r="A21" s="18">
         <v>3</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+      <c r="A22" s="18">
         <v>4</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
+      <c r="A23" s="18">
         <v>5</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
+      <c r="A24" s="18">
         <v>6</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="29">
+      <c r="A25" s="18">
         <v>7</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="29">
+      <c r="A26" s="18">
         <v>8</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
+      <c r="A27" s="18">
         <v>9</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="29">
+      <c r="A28" s="18">
         <v>10</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
+      <c r="A29" s="18">
         <v>11</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="29">
+      <c r="A30" s="18">
         <v>12</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="29">
+      <c r="A31" s="18">
         <v>13</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789ACFEA-EA73-C447-89FE-94D7F9902019}">
+  <dimension ref="A1:I161"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J98" sqref="J98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="25"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="25"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="26"/>
+    </row>
+    <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:9" ht="44" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="36"/>
+      <c r="B29" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="35">
+        <v>1</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="35">
+        <v>2</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="35">
+        <v>3</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="35">
+        <v>4</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="35">
+        <v>5</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="35">
+        <v>6</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="35">
+        <v>7</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="35">
+        <v>8</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="35">
+        <v>9</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="35">
+        <v>10</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="35">
+        <v>11</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="35">
+        <v>12</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="35">
+        <v>13</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="35">
+        <v>14</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="35">
+        <v>15</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="35">
+        <v>16</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="35">
+        <v>17</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="35">
+        <v>18</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="35">
+        <v>19</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="14">
+        <v>20</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="40"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="35">
+        <v>1</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="35">
+        <v>2</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="35">
+        <v>3</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="35">
+        <v>4</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="35">
+        <v>5</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="35">
+        <v>6</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="35">
+        <v>7</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="35">
+        <v>8</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="35">
+        <v>9</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="35">
+        <v>10</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="35">
+        <v>11</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="35">
+        <v>12</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="35">
+        <v>13</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="35">
+        <v>14</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="35">
+        <v>15</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="35">
+        <v>16</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="35">
+        <v>17</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="35">
+        <v>18</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="35">
+        <v>19</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="18">
+        <v>20</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+    </row>
+    <row r="73" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A73" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29"/>
+    </row>
+    <row r="74" spans="1:9" ht="44" x14ac:dyDescent="0.2">
+      <c r="A74" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="36"/>
+      <c r="B75" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="35">
+        <v>1</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="35">
+        <v>2</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="35">
+        <v>3</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="35">
+        <v>4</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="35">
+        <v>5</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="35">
+        <v>6</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="35">
+        <v>7</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="35">
+        <v>8</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="35">
+        <v>9</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="35">
+        <v>10</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="35">
+        <v>11</v>
+      </c>
+      <c r="B86" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="35">
+        <v>12</v>
+      </c>
+      <c r="B87" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="35">
+        <v>13</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="35">
+        <v>14</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="35">
+        <v>15</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="35">
+        <v>16</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="35">
+        <v>17</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="35">
+        <v>18</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="35">
+        <v>19</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="14">
+        <v>20</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="40"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="18">
+        <v>1</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="18">
+        <v>2</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="18">
+        <v>3</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="18">
+        <v>4</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="18">
+        <v>5</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="18">
+        <v>6</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="18">
+        <v>7</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="18">
+        <v>8</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="18">
+        <v>9</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="18">
+        <v>10</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="18">
+        <v>11</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="18">
+        <v>12</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="18">
+        <v>13</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="18">
+        <v>14</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="18">
+        <v>15</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="18">
+        <v>16</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="18">
+        <v>17</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="18">
+        <v>18</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="18">
+        <v>19</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="30"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="18">
+        <v>20</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="30"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+    </row>
+    <row r="118" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A118" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="28"/>
+      <c r="I118" s="29"/>
+    </row>
+    <row r="119" spans="1:9" ht="44" x14ac:dyDescent="0.2">
+      <c r="A119" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="36"/>
+      <c r="B120" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="37"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="18">
+        <v>1</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="30"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="18">
+        <v>2</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="30"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="18">
+        <v>3</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="18">
+        <v>4</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="30"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="18">
+        <v>5</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="30"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="30"/>
+      <c r="I125" s="30"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="18">
+        <v>6</v>
+      </c>
+      <c r="B126" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30"/>
+      <c r="I126" s="30"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="18">
+        <v>7</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="30"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="30"/>
+      <c r="I127" s="30"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="18">
+        <v>8</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30"/>
+      <c r="I128" s="30"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="18">
+        <v>9</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="C129" s="30"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="30"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="30"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="18">
+        <v>10</v>
+      </c>
+      <c r="B130" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="C130" s="30"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="30"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="18">
+        <v>11</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="30"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="30"/>
+      <c r="I131" s="30"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="18">
+        <v>12</v>
+      </c>
+      <c r="B132" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="30"/>
+      <c r="I132" s="30"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="18">
+        <v>13</v>
+      </c>
+      <c r="B133" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="30"/>
+      <c r="I133" s="30"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="18">
+        <v>14</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="30"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="30"/>
+      <c r="I134" s="30"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="18">
+        <v>15</v>
+      </c>
+      <c r="B135" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="30"/>
+      <c r="I135" s="30"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="18">
+        <v>16</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="30"/>
+      <c r="I136" s="30"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="18">
+        <v>17</v>
+      </c>
+      <c r="B137" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30"/>
+      <c r="I137" s="30"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="18">
+        <v>18</v>
+      </c>
+      <c r="B138" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="C138" s="30"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="30"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="30"/>
+      <c r="I138" s="30"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="18">
+        <v>19</v>
+      </c>
+      <c r="B139" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="C139" s="30"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="30"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="30"/>
+      <c r="I139" s="30"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="18">
+        <v>20</v>
+      </c>
+      <c r="B140" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="30"/>
+      <c r="I140" s="30"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B141" s="39"/>
+      <c r="C141" s="39"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="39"/>
+      <c r="F141" s="39"/>
+      <c r="G141" s="39"/>
+      <c r="H141" s="39"/>
+      <c r="I141" s="40"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="18">
+        <v>1</v>
+      </c>
+      <c r="B142" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="30"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="30"/>
+      <c r="I142" s="30"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="18">
+        <v>2</v>
+      </c>
+      <c r="B143" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="30"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="30"/>
+      <c r="I143" s="30"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="18">
+        <v>3</v>
+      </c>
+      <c r="B144" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="30"/>
+      <c r="G144" s="30"/>
+      <c r="H144" s="30"/>
+      <c r="I144" s="30"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="18">
+        <v>4</v>
+      </c>
+      <c r="B145" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="30"/>
+      <c r="I145" s="30"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="18">
+        <v>5</v>
+      </c>
+      <c r="B146" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C146" s="30"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="30"/>
+      <c r="I146" s="30"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="18">
+        <v>6</v>
+      </c>
+      <c r="B147" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C147" s="30"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="30"/>
+      <c r="I147" s="30"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="18">
+        <v>7</v>
+      </c>
+      <c r="B148" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C148" s="30"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="30"/>
+      <c r="I148" s="30"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="18">
+        <v>8</v>
+      </c>
+      <c r="B149" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="C149" s="30"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="30"/>
+      <c r="G149" s="30"/>
+      <c r="H149" s="30"/>
+      <c r="I149" s="30"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="18">
+        <v>9</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C150" s="30"/>
+      <c r="D150" s="30"/>
+      <c r="E150" s="30"/>
+      <c r="F150" s="30"/>
+      <c r="G150" s="30"/>
+      <c r="H150" s="30"/>
+      <c r="I150" s="30"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="18">
+        <v>10</v>
+      </c>
+      <c r="B151" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="30"/>
+      <c r="G151" s="30"/>
+      <c r="H151" s="30"/>
+      <c r="I151" s="30"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="18">
+        <v>11</v>
+      </c>
+      <c r="B152" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="30"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="30"/>
+      <c r="I152" s="30"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="18">
+        <v>12</v>
+      </c>
+      <c r="B153" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="30"/>
+      <c r="G153" s="30"/>
+      <c r="H153" s="30"/>
+      <c r="I153" s="30"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="18">
+        <v>13</v>
+      </c>
+      <c r="B154" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="C154" s="30"/>
+      <c r="D154" s="30"/>
+      <c r="E154" s="30"/>
+      <c r="F154" s="30"/>
+      <c r="G154" s="30"/>
+      <c r="H154" s="30"/>
+      <c r="I154" s="30"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="18">
+        <v>14</v>
+      </c>
+      <c r="B155" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="C155" s="30"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="30"/>
+      <c r="G155" s="30"/>
+      <c r="H155" s="30"/>
+      <c r="I155" s="30"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="18">
+        <v>15</v>
+      </c>
+      <c r="B156" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="C156" s="30"/>
+      <c r="D156" s="30"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="30"/>
+      <c r="G156" s="30"/>
+      <c r="H156" s="30"/>
+      <c r="I156" s="30"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="18">
+        <v>16</v>
+      </c>
+      <c r="B157" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C157" s="30"/>
+      <c r="D157" s="30"/>
+      <c r="E157" s="30"/>
+      <c r="F157" s="30"/>
+      <c r="G157" s="30"/>
+      <c r="H157" s="30"/>
+      <c r="I157" s="30"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="18">
+        <v>17</v>
+      </c>
+      <c r="B158" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="C158" s="30"/>
+      <c r="D158" s="30"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="30"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="30"/>
+      <c r="I158" s="30"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="18">
+        <v>18</v>
+      </c>
+      <c r="B159" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="C159" s="30"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="30"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="30"/>
+      <c r="I159" s="30"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="18">
+        <v>19</v>
+      </c>
+      <c r="B160" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="C160" s="30"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="30"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="30"/>
+      <c r="I160" s="30"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="18">
+        <v>20</v>
+      </c>
+      <c r="B161" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="C161" s="30"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="30"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="30"/>
+      <c r="I161" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="262">
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="A73:I73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="B75:I75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="A96:I96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="F102:I102"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="F104:I104"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="F105:I105"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="F106:I106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="F107:I107"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="A71:I72"/>
+    <mergeCell ref="A118:I118"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="B120:I120"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="F124:I124"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="B126:E126"/>
+    <mergeCell ref="F126:I126"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="F127:I127"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="B131:E131"/>
+    <mergeCell ref="F131:I131"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="F132:I132"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="F133:I133"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="F135:I135"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="F136:I136"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="F137:I137"/>
+    <mergeCell ref="A141:I141"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="F142:I142"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="F143:I143"/>
+    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="F139:I139"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="F144:I144"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="F145:I145"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:I146"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="F147:I147"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="F148:I148"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="B150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="F154:I154"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="F155:I155"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="F156:I156"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="F157:I157"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="B159:E159"/>
+    <mergeCell ref="F159:I159"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="F160:I160"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="F161:I161"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VISHWANATH_TAWARE_MT.xlsx
+++ b/VISHWANATH_TAWARE_MT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishwanathtaware/STUDY/SEED_SDET_COURSE_MANUAL_TESTING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA30EC6-A35F-6B4D-9F06-D64E95467F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C086EF-4C63-AF4B-86DD-07F4D6B1903E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15_June_2024_Online_Shopping" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Excerise_6" sheetId="7" r:id="rId7"/>
     <sheet name="Chapter_11" sheetId="8" r:id="rId8"/>
     <sheet name="Excerise_7" sheetId="9" r:id="rId9"/>
+    <sheet name="Exercise_8" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1802,9 +1803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" activeCellId="1" sqref="D3 B4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2217,11 +2218,25 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39747A3-2D51-B049-B780-28C0672CE175}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D95DB7-1D98-144F-9A37-4BD914EBCC5C}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2304,7 +2319,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3069,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DCB945-2241-5948-BE79-AB8FF17D6DF6}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection sqref="A1:B16"/>
+    <sheetView topLeftCell="A19" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3570,8 +3585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EACABF-1CBC-514F-8C37-668A541FC2E2}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3971,8 +3986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789ACFEA-EA73-C447-89FE-94D7F9902019}">
   <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+    <sheetView topLeftCell="A138" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/VISHWANATH_TAWARE_MT.xlsx
+++ b/VISHWANATH_TAWARE_MT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishwanathtaware/STUDY/SEED_SDET_COURSE_MANUAL_TESTING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C086EF-4C63-AF4B-86DD-07F4D6B1903E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2845A804-E1EA-EE43-8C48-E2EEAB35BAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15_June_2024_Online_Shopping" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="430">
   <si>
     <t>Test_Case_ID</t>
   </si>
@@ -1187,6 +1187,165 @@
   </si>
   <si>
     <t>To verify the two-step verification functionality with an invalid or mismatched PIN.</t>
+  </si>
+  <si>
+    <t>Question and Answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questions </t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
+    <t>Admin: Manages taks of users, subjects, and configurations.</t>
+  </si>
+  <si>
+    <t>Trainer: create exams.</t>
+  </si>
+  <si>
+    <t>Examiner: Allocate exams to students</t>
+  </si>
+  <si>
+    <t>Counselor: Collect the exam fees and create login to student.</t>
+  </si>
+  <si>
+    <t>Student: Appears for the exam.</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>1. Admin will create users and subjects.</t>
+  </si>
+  <si>
+    <t>2. Counselor will register students.</t>
+  </si>
+  <si>
+    <t>3. Trainer will create questions and configure paper patterns.</t>
+  </si>
+  <si>
+    <t>4. Examiner schedules exams and assigns students.</t>
+  </si>
+  <si>
+    <t>5. Students will give the exam.</t>
+  </si>
+  <si>
+    <t>6. System will generate and display results.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>User data (name, role and password)</t>
+  </si>
+  <si>
+    <t>Student data (name,  subjects, email, mobile number, fee reciept number, unique Id)</t>
+  </si>
+  <si>
+    <t>Exam data (questions, answers, difficulty levels, paper patterns)</t>
+  </si>
+  <si>
+    <t>Exam results (scores, grades, result(Pass/Fail)</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>User IDs should not be duplicate and should be a minimum of 6 characters.</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Notification Email and SMS should be sent to students once they are allocated in exam</t>
+  </si>
+  <si>
+    <t>The system should load each new question in the student module within 3 seconds during the examination.</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>User roles (Admin, Trainer, Counselor, Examiner, Student)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>1. A student must be registered and have paid the exam fees to appear for the exam.</t>
+  </si>
+  <si>
+    <t>2. Warning should be displayed when last 5 minutes are remaining during examination</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>System should be easy to use for students, Trainers, and other users.</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>And an ID would get created automatically when the trainer adds a question.</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Instant marks and certificate should be generated after completion of exam</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Question should be in random sequence for each exam.</t>
+  </si>
+  <si>
+    <t>Unique id should be generate for questions and Students</t>
+  </si>
+  <si>
+    <t>Sending notification emails and SMS to students.</t>
+  </si>
+  <si>
+    <t>Autogeneration of passwords for students.</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Student certificates should be digitally secured (no one should be able to make changes to the certificate).</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>1. Counselor registers students after collecting fees, and this data is used by the Examiner to create batches and schedule exams.</t>
+  </si>
+  <si>
+    <t>2. Trainer creates and manages the question bank and paper pattern, which the Examiner uses to create the actual exam.</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Data backup and recovery mechanisms: Ensuring that all data (questions, student information, exam results) is regularly backed up and can be recovered in case of system failure.</t>
+  </si>
+  <si>
+    <t>User authentication and authorization: Proper authentication mechanisms to ensure that only authorized users can access the system and perform actions based on their roles.</t>
+  </si>
+  <si>
+    <t>Exam should be resume after connection issue</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1521,6 +1680,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1803,7 +1965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
@@ -2220,14 +2382,446 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39747A3-2D51-B049-B780-28C0672CE175}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="151.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="44" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
+      <c r="B6" s="44" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
+      <c r="B7" s="44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="44" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
+      <c r="B9" s="44" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="45"/>
+      <c r="B10" s="44"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
+      <c r="B11" s="44"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="45"/>
+      <c r="B12" s="44"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
+      <c r="B14" s="44" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="45"/>
+      <c r="B15" s="44" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="45"/>
+      <c r="B16" s="44" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="45"/>
+      <c r="B17" s="44" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
+      <c r="B18" s="44" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="45"/>
+      <c r="B19" s="44"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="45"/>
+      <c r="B20" s="44"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="45"/>
+      <c r="B21" s="44"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="45"/>
+      <c r="B23" s="44" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="45"/>
+      <c r="B24" s="44" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="45"/>
+      <c r="B25" s="44" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="45"/>
+      <c r="B26" s="44"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="45"/>
+      <c r="B27" s="44"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="45"/>
+      <c r="B28" s="44"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="45"/>
+      <c r="B30" s="44"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="45"/>
+      <c r="B31" s="44"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="45"/>
+      <c r="B33" s="44" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="45"/>
+      <c r="B34" s="44"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="45"/>
+      <c r="B38" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="45"/>
+      <c r="B39" s="44"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="45"/>
+      <c r="B40" s="44"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="45"/>
+      <c r="B41" s="44"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="45" t="s">
+        <v>405</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="45"/>
+      <c r="B43" s="44" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="45"/>
+      <c r="B44" s="44" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="45"/>
+      <c r="B45" s="44"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="45"/>
+      <c r="B46" s="44"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="45"/>
+      <c r="B47" s="44"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="45"/>
+      <c r="B49" s="44"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="45"/>
+      <c r="B50" s="44"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="45" t="s">
+        <v>411</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="45"/>
+      <c r="B52" s="44" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="45"/>
+      <c r="B53" s="44"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="45"/>
+      <c r="B54" s="44"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="45"/>
+      <c r="B55" s="44"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="B56" s="44" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="45"/>
+      <c r="B57" s="44"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="45"/>
+      <c r="B58" s="44"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="45"/>
+      <c r="B59" s="44"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="45" t="s">
+        <v>416</v>
+      </c>
+      <c r="B60" s="44" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="45"/>
+      <c r="B61" s="44" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="45"/>
+      <c r="B62" s="44" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="45"/>
+      <c r="B63" s="44" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="45"/>
+      <c r="B64" s="44"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="45"/>
+      <c r="B65" s="44"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="45"/>
+      <c r="B66" s="44"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="45" t="s">
+        <v>421</v>
+      </c>
+      <c r="B67" s="44" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="45"/>
+      <c r="B68" s="44"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="45"/>
+      <c r="B69" s="44"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="45"/>
+      <c r="B70" s="44"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="45"/>
+      <c r="B72" s="44" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="45"/>
+      <c r="B73" s="44"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="45"/>
+      <c r="B74" s="44"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="45"/>
+      <c r="B75" s="44"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="45" t="s">
+        <v>426</v>
+      </c>
+      <c r="B76" s="44" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="45"/>
+      <c r="B77" s="44" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="44"/>
+      <c r="B78" s="44" t="s">
+        <v>429</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/VISHWANATH_TAWARE_MT.xlsx
+++ b/VISHWANATH_TAWARE_MT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SEED_PROGRAMING_SDET_COURSE\SEED_SDET_COURSE_MANUAL_TESTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishwanathtaware/STUDY/SEED_SDET_COURSE_MANUAL_TESTING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E23158D-76A5-4A82-AFD9-D5F2ED71624D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779E67C7-F040-D64E-B118-6C656E0B9216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases for Online Shoping W" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Chapter_11" sheetId="8" r:id="rId8"/>
     <sheet name="Excerise_7" sheetId="9" r:id="rId9"/>
     <sheet name="Exercise_8" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="520">
   <si>
     <t>Test_Case_ID</t>
   </si>
@@ -1387,6 +1388,234 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Test Scenarios for OES</t>
+  </si>
+  <si>
+    <t>Positive  Scenarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin </t>
+  </si>
+  <si>
+    <t>To verify that Administrator should be able to create, modify and remove users from the system. Using Valid Data</t>
+  </si>
+  <si>
+    <t>To verify the user id generation</t>
+  </si>
+  <si>
+    <t>To verify Admin should be able to add new subject and remove existing subject using valid data</t>
+  </si>
+  <si>
+    <t>To verify Admin should be able to allocate subjects to Trainers using valid data</t>
+  </si>
+  <si>
+    <t>Negative  Scenarios</t>
+  </si>
+  <si>
+    <t>Trainer</t>
+  </si>
+  <si>
+    <t>To verify that Trainer should be able to create topics under the subject</t>
+  </si>
+  <si>
+    <t>To verify that Trainer should be able to remove, modify and view questions</t>
+  </si>
+  <si>
+    <t>To verify the adding question functionality using valid data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the mark allocation functionality </t>
+  </si>
+  <si>
+    <t>To verify that Each question should get saved with unique ID</t>
+  </si>
+  <si>
+    <t>To verify the adding question functionality using invalid data</t>
+  </si>
+  <si>
+    <t>To verify that Trainer should be able to configure paper pattern for the subject allocated to him</t>
+  </si>
+  <si>
+    <t>To verify the Selecting topics to be included in paper</t>
+  </si>
+  <si>
+    <t>To verify the Setting number of questions per topic to be included in paper</t>
+  </si>
+  <si>
+    <t>To verify the Setting time duration for exam using valid data</t>
+  </si>
+  <si>
+    <t>To verify Setting passing % using valid data</t>
+  </si>
+  <si>
+    <t>To verify Administrator should nor  be able to create, modify and remove users from the system. Using Invalid Data</t>
+  </si>
+  <si>
+    <t>To verify Admin should not be able to add new subject and remove existing subject using invalid data</t>
+  </si>
+  <si>
+    <t>To verify Admin should not be able to allocate subjects to Trainers using invalid data</t>
+  </si>
+  <si>
+    <t>To verify that Trainer should not be able to create topics under the subject using invalid data</t>
+  </si>
+  <si>
+    <t>To verify that Trainer should not be able to remove, modify and view questions using invalid data</t>
+  </si>
+  <si>
+    <t>To verify that Trainer should be able to modify paper pattern</t>
+  </si>
+  <si>
+    <t>To verify that Once exam is created by examiner, the questions need to be selected from question bank based on the exam configuration. Randomization should be done for the question sequence</t>
+  </si>
+  <si>
+    <t>To verify that Trainer should not be able to configure paper pattern for the subject not allocated to him</t>
+  </si>
+  <si>
+    <t>To verify that user should not be able to select time duration using invlaid data</t>
+  </si>
+  <si>
+    <t>To verify user should be able Set passing % using invalid data</t>
+  </si>
+  <si>
+    <t>Counselor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that councellor should collect mandatory data for student using valid data </t>
+  </si>
+  <si>
+    <t>To verify that Unique ID should be created for each student after registration</t>
+  </si>
+  <si>
+    <t>To verify that Once counselor receives exam fees from students, he should register student.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that user should not be registered if fees is not paid </t>
+  </si>
+  <si>
+    <t>To verify the user should not prcoeed with registration on invalid data adding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examinier </t>
+  </si>
+  <si>
+    <t>To verify that Examiner should be able to create a batch and add registered students to the batch</t>
+  </si>
+  <si>
+    <t>To verify that Examiner should be able to set exam paper date and time for a batch</t>
+  </si>
+  <si>
+    <t>To verify that Notification email and SMS should be sent to students once they are allocated an exam</t>
+  </si>
+  <si>
+    <t>To verify that Notification should include exam ID and one time password for the student</t>
+  </si>
+  <si>
+    <t>To verify that Password should be autogenerated by the system</t>
+  </si>
+  <si>
+    <t>To verify that System should be generate individual student’s report in PDF format after completion of exam</t>
+  </si>
+  <si>
+    <t>To verify that Examiner should be able to send certificate to student on email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that examiner should not be able to create batch without minimun no of students </t>
+  </si>
+  <si>
+    <t>To verify that Examiner should be not able to set exam paper date and time for a batch with invalid data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that system should not generate the report if exam is not attended or not submitted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that Examiner should not be able to send certificate to student on invalid email id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student </t>
+  </si>
+  <si>
+    <t>To verify that Students are allowed only one attempt for exam</t>
+  </si>
+  <si>
+    <t>To verify that Registered students should be able to appear for the exam with the assigned ID and password</t>
+  </si>
+  <si>
+    <t>To verify that Students should have ability to move to previous and next question with or without answering current question</t>
+  </si>
+  <si>
+    <t>To verify that Student should be able to mark question for review</t>
+  </si>
+  <si>
+    <t>To verify that Student can finish exam at any point of time within the time limit set for the paper</t>
+  </si>
+  <si>
+    <t>To verify that T ime remaining should be displayed to student</t>
+  </si>
+  <si>
+    <t>To verify that Warning should be displayed when last 5 minutes are remaining</t>
+  </si>
+  <si>
+    <t>To verify the student result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the student grade </t>
+  </si>
+  <si>
+    <t>To verify that students should not login again after one attempt</t>
+  </si>
+  <si>
+    <t>To verify that Registered students should be not able to appear for the exam with the invalid assigned ID and password</t>
+  </si>
+  <si>
+    <t>To verify that Student should be able to unamrk  question for review</t>
+  </si>
+  <si>
+    <t>To verify the time duration if the exam was paused due to some issues</t>
+  </si>
+  <si>
+    <t>To verify that result should not be generated if exam was closed and paper not submitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify exam auto submit functionlaity </t>
+  </si>
+  <si>
+    <t>To verify that grade  should not be generated if exam was closed and paper not submitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non Functional </t>
+  </si>
+  <si>
+    <t>To verify that 500 students should be able to appear for exam concurrently</t>
+  </si>
+  <si>
+    <t>To verify that system should be easy to use for students, Trainers and other users.</t>
+  </si>
+  <si>
+    <t>To verify that Student certificates should be digitally secured (no one should be able to make change in the certificate)</t>
+  </si>
+  <si>
+    <t>To verify that Every new question in student module should get loaded within 3 seconds during examination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End to End </t>
+  </si>
+  <si>
+    <t>Admin adds the users, allocate the subject to trainer, add and remove subject</t>
+  </si>
+  <si>
+    <t>Trainer should be able to create question bank , add , modify, remove questions , allocate difficulty level , allocate marks</t>
+  </si>
+  <si>
+    <t>Trainer should be able to configure paper pattern , select difficulty level , select passing marks %</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1623,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0_);[Red]\(&quot;₹&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;₹&quot;#,##0_);[Red]\(&quot;₹&quot;#,##0\)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1664,7 +1893,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1735,7 +1964,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1795,6 +2024,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1810,9 +2042,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1827,6 +2056,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1849,32 +2105,11 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1882,11 +2117,32 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2177,20 +2433,20 @@
       <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="10" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>431</v>
       </c>
@@ -2202,7 +2458,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2228,7 +2484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2254,7 +2510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2280,7 +2536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2306,7 +2562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2332,7 +2588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2358,7 +2614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2384,7 +2640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2410,7 +2666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2436,7 +2692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2462,7 +2718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2488,7 +2744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -2514,7 +2770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -2540,7 +2796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -2566,7 +2822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -2606,28 +2862,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39747A3-2D51-B049-B780-28C0672CE175}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="151.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="151.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="76"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="74"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="32"/>
       <c r="B2" s="32"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>440</v>
       </c>
@@ -2635,70 +2891,70 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="75" t="s">
         <v>217</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="75"/>
       <c r="B6" s="33" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="75"/>
       <c r="B7" s="33" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="75"/>
       <c r="B8" s="33" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="75"/>
       <c r="B9" s="33" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="73" t="s">
         <v>383</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="73"/>
       <c r="B11" s="34" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="73"/>
       <c r="B12" s="34" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="73"/>
       <c r="B13" s="34" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="73"/>
       <c r="B14" s="34" t="s">
         <v>388</v>
       </c>
@@ -2706,39 +2962,39 @@
         <v>443</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="73"/>
       <c r="B15" s="34" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="75" t="s">
         <v>390</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="75"/>
       <c r="B17" s="33" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="75"/>
       <c r="B18" s="33" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="75"/>
       <c r="B19" s="33" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>395</v>
       </c>
@@ -2746,55 +3002,55 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="73" t="s">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="75" t="s">
         <v>397</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="75"/>
       <c r="B22" s="33" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="73" t="s">
         <v>400</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="75"/>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="73"/>
       <c r="B24" s="34" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="73" t="s">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="75" t="s">
         <v>403</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="75"/>
       <c r="B26" s="33" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="75"/>
       <c r="B27" s="33" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
         <v>407</v>
       </c>
@@ -2802,21 +3058,21 @@
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="76" t="s">
         <v>409</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="76"/>
       <c r="B30" s="33" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
         <v>412</v>
       </c>
@@ -2824,28 +3080,28 @@
         <v>413</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="74" t="s">
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="76" t="s">
         <v>414</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="74"/>
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="76"/>
       <c r="B33" s="33" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="76"/>
       <c r="B34" s="33" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="74"/>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="76"/>
       <c r="B35" s="33" t="s">
         <v>418</v>
       </c>
@@ -2853,7 +3109,7 @@
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
         <v>419</v>
       </c>
@@ -2864,8 +3120,8 @@
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="73" t="s">
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="75" t="s">
         <v>421</v>
       </c>
       <c r="B37" s="33" t="s">
@@ -2875,8 +3131,8 @@
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="75"/>
       <c r="B38" s="33" t="s">
         <v>423</v>
       </c>
@@ -2884,42 +3140,1559 @@
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
     </row>
-    <row r="39" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="75" t="s">
+    <row r="39" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="73" t="s">
         <v>424</v>
       </c>
       <c r="B39" s="34" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="75"/>
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="73"/>
       <c r="B40" s="34" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="75"/>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="73"/>
       <c r="B41" s="34" t="s">
         <v>427</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE722470-F1EA-0D4F-A63D-489BE1F02E8D}">
+  <dimension ref="A1:H105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100:H100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="79" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="80" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="81" t="s">
+        <v>445</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81" t="s">
+        <v>448</v>
+      </c>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="80" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+    </row>
+    <row r="6" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="83">
+        <v>1</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>449</v>
+      </c>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="83">
+        <v>2</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>450</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="83">
+        <v>3</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>451</v>
+      </c>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="83">
+        <v>4</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="80" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="83">
+        <v>1</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>466</v>
+      </c>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="83">
+        <v>2</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>467</v>
+      </c>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="83">
+        <v>3</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>468</v>
+      </c>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="83"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="81" t="s">
+        <v>445</v>
+      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81" t="s">
+        <v>454</v>
+      </c>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="80" t="s">
+        <v>447</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+    </row>
+    <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="83">
+        <v>1</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>455</v>
+      </c>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="83">
+        <v>2</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>456</v>
+      </c>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="83">
+        <v>3</v>
+      </c>
+      <c r="B20" s="84" t="s">
+        <v>457</v>
+      </c>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="83">
+        <v>4</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>458</v>
+      </c>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="83">
+        <v>5</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>459</v>
+      </c>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="80" t="s">
+        <v>453</v>
+      </c>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="83">
+        <v>1</v>
+      </c>
+      <c r="B24" s="84" t="s">
+        <v>469</v>
+      </c>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="83">
+        <v>2</v>
+      </c>
+      <c r="B25" s="84" t="s">
+        <v>470</v>
+      </c>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="83">
+        <v>3</v>
+      </c>
+      <c r="B26" s="84" t="s">
+        <v>460</v>
+      </c>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="83"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="81" t="s">
+        <v>445</v>
+      </c>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81" t="s">
+        <v>454</v>
+      </c>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="80" t="s">
+        <v>447</v>
+      </c>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+    </row>
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="83">
+        <v>1</v>
+      </c>
+      <c r="B31" s="84" t="s">
+        <v>461</v>
+      </c>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="83">
+        <v>2</v>
+      </c>
+      <c r="B32" s="84" t="s">
+        <v>462</v>
+      </c>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="83">
+        <v>3</v>
+      </c>
+      <c r="B33" s="84" t="s">
+        <v>463</v>
+      </c>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="83">
+        <v>4</v>
+      </c>
+      <c r="B34" s="84" t="s">
+        <v>464</v>
+      </c>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="83">
+        <v>5</v>
+      </c>
+      <c r="B35" s="84" t="s">
+        <v>465</v>
+      </c>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="83">
+        <v>6</v>
+      </c>
+      <c r="B36" s="84" t="s">
+        <v>471</v>
+      </c>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+    </row>
+    <row r="37" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="83">
+        <v>7</v>
+      </c>
+      <c r="B37" s="84" t="s">
+        <v>472</v>
+      </c>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="80" t="s">
+        <v>453</v>
+      </c>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+    </row>
+    <row r="39" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="83">
+        <v>1</v>
+      </c>
+      <c r="B39" s="84" t="s">
+        <v>473</v>
+      </c>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="83">
+        <v>2</v>
+      </c>
+      <c r="B40" s="84" t="s">
+        <v>474</v>
+      </c>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="83">
+        <v>3</v>
+      </c>
+      <c r="B41" s="84" t="s">
+        <v>475</v>
+      </c>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="83"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="81" t="s">
+        <v>445</v>
+      </c>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81" t="s">
+        <v>476</v>
+      </c>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="80" t="s">
+        <v>447</v>
+      </c>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+    </row>
+    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="83">
+        <v>1</v>
+      </c>
+      <c r="B46" s="84" t="s">
+        <v>479</v>
+      </c>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="83">
+        <v>2</v>
+      </c>
+      <c r="B47" s="84" t="s">
+        <v>477</v>
+      </c>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="83">
+        <v>3</v>
+      </c>
+      <c r="B48" s="84" t="s">
+        <v>478</v>
+      </c>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="80" t="s">
+        <v>453</v>
+      </c>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="83">
+        <v>1</v>
+      </c>
+      <c r="B50" s="84" t="s">
+        <v>480</v>
+      </c>
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="83">
+        <v>2</v>
+      </c>
+      <c r="B51" s="84" t="s">
+        <v>481</v>
+      </c>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="83"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="81" t="s">
+        <v>445</v>
+      </c>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81" t="s">
+        <v>482</v>
+      </c>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="80" t="s">
+        <v>447</v>
+      </c>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+    </row>
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="83">
+        <v>1</v>
+      </c>
+      <c r="B56" s="84" t="s">
+        <v>483</v>
+      </c>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="84"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="83">
+        <v>2</v>
+      </c>
+      <c r="B57" s="84" t="s">
+        <v>484</v>
+      </c>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="84"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="83">
+        <v>3</v>
+      </c>
+      <c r="B58" s="84" t="s">
+        <v>485</v>
+      </c>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="84"/>
+      <c r="H58" s="84"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="83">
+        <v>4</v>
+      </c>
+      <c r="B59" s="84" t="s">
+        <v>486</v>
+      </c>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="83">
+        <v>5</v>
+      </c>
+      <c r="B60" s="77" t="s">
+        <v>487</v>
+      </c>
+      <c r="C60" s="77"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+    </row>
+    <row r="61" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="83">
+        <v>6</v>
+      </c>
+      <c r="B61" s="84" t="s">
+        <v>488</v>
+      </c>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="84"/>
+      <c r="H61" s="84"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="83">
+        <v>7</v>
+      </c>
+      <c r="B62" s="77" t="s">
+        <v>489</v>
+      </c>
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="80" t="s">
+        <v>453</v>
+      </c>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="80"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="80"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="85">
+        <v>1</v>
+      </c>
+      <c r="B64" s="77" t="s">
+        <v>490</v>
+      </c>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
+    </row>
+    <row r="65" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="85">
+        <v>2</v>
+      </c>
+      <c r="B65" s="84" t="s">
+        <v>491</v>
+      </c>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="84"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="85">
+        <v>3</v>
+      </c>
+      <c r="B66" s="77" t="s">
+        <v>492</v>
+      </c>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="85">
+        <v>4</v>
+      </c>
+      <c r="B67" s="77" t="s">
+        <v>493</v>
+      </c>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
+    </row>
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="85">
+        <v>5</v>
+      </c>
+      <c r="B68" s="77"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+    </row>
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="81" t="s">
+        <v>445</v>
+      </c>
+      <c r="B69" s="81"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="81" t="s">
+        <v>494</v>
+      </c>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
+      <c r="H69" s="81"/>
+    </row>
+    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="80" t="s">
+        <v>447</v>
+      </c>
+      <c r="B70" s="80"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
+      <c r="G70" s="80"/>
+      <c r="H70" s="80"/>
+    </row>
+    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="80"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="83">
+        <v>1</v>
+      </c>
+      <c r="B72" s="84" t="s">
+        <v>495</v>
+      </c>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="84"/>
+    </row>
+    <row r="73" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="83">
+        <v>2</v>
+      </c>
+      <c r="B73" s="84" t="s">
+        <v>496</v>
+      </c>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="84"/>
+      <c r="H73" s="84"/>
+    </row>
+    <row r="74" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="83">
+        <v>3</v>
+      </c>
+      <c r="B74" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="C74" s="84"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="84"/>
+      <c r="G74" s="84"/>
+      <c r="H74" s="84"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="83">
+        <v>4</v>
+      </c>
+      <c r="B75" s="84" t="s">
+        <v>498</v>
+      </c>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="84"/>
+      <c r="H75" s="84"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="83">
+        <v>5</v>
+      </c>
+      <c r="B76" s="84" t="s">
+        <v>499</v>
+      </c>
+      <c r="C76" s="84"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="84"/>
+      <c r="H76" s="84"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="83">
+        <v>6</v>
+      </c>
+      <c r="B77" s="84" t="s">
+        <v>500</v>
+      </c>
+      <c r="C77" s="84"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="84"/>
+      <c r="G77" s="84"/>
+      <c r="H77" s="84"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="83">
+        <v>7</v>
+      </c>
+      <c r="B78" s="84" t="s">
+        <v>501</v>
+      </c>
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="84"/>
+      <c r="H78" s="84"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="83">
+        <v>8</v>
+      </c>
+      <c r="B79" s="84" t="s">
+        <v>502</v>
+      </c>
+      <c r="C79" s="84"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="84"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="83">
+        <v>9</v>
+      </c>
+      <c r="B80" s="84" t="s">
+        <v>506</v>
+      </c>
+      <c r="C80" s="84"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="84"/>
+      <c r="H80" s="84"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="83">
+        <v>10</v>
+      </c>
+      <c r="B81" s="84" t="s">
+        <v>509</v>
+      </c>
+      <c r="C81" s="84"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="84"/>
+      <c r="F81" s="84"/>
+      <c r="G81" s="84"/>
+      <c r="H81" s="84"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="83">
+        <v>11</v>
+      </c>
+      <c r="B82" s="84" t="s">
+        <v>503</v>
+      </c>
+      <c r="C82" s="84"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="84"/>
+      <c r="G82" s="84"/>
+      <c r="H82" s="84"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="80" t="s">
+        <v>453</v>
+      </c>
+      <c r="B83" s="80"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="80"/>
+      <c r="E83" s="80"/>
+      <c r="F83" s="80"/>
+      <c r="G83" s="80"/>
+      <c r="H83" s="80"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="83">
+        <v>1</v>
+      </c>
+      <c r="B84" s="84" t="s">
+        <v>504</v>
+      </c>
+      <c r="C84" s="84"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="84"/>
+      <c r="F84" s="84"/>
+      <c r="G84" s="84"/>
+      <c r="H84" s="84"/>
+    </row>
+    <row r="85" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="83">
+        <v>2</v>
+      </c>
+      <c r="B85" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="C85" s="84"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="84"/>
+      <c r="F85" s="84"/>
+      <c r="G85" s="84"/>
+      <c r="H85" s="84"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="83">
+        <v>3</v>
+      </c>
+      <c r="B86" s="84" t="s">
+        <v>507</v>
+      </c>
+      <c r="C86" s="84"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="84"/>
+      <c r="H86" s="84"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="83">
+        <v>4</v>
+      </c>
+      <c r="B87" s="84" t="s">
+        <v>508</v>
+      </c>
+      <c r="C87" s="84"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="84"/>
+      <c r="F87" s="84"/>
+      <c r="G87" s="84"/>
+      <c r="H87" s="84"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="83">
+        <v>5</v>
+      </c>
+      <c r="B88" s="84" t="s">
+        <v>510</v>
+      </c>
+      <c r="C88" s="84"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="84"/>
+      <c r="F88" s="84"/>
+      <c r="G88" s="84"/>
+      <c r="H88" s="84"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="83"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="78" t="s">
+        <v>511</v>
+      </c>
+      <c r="B90" s="78"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="78"/>
+      <c r="E90" s="78"/>
+      <c r="F90" s="78"/>
+      <c r="G90" s="78"/>
+      <c r="H90" s="78"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="83">
+        <v>1</v>
+      </c>
+      <c r="B91" s="84" t="s">
+        <v>512</v>
+      </c>
+      <c r="C91" s="84"/>
+      <c r="D91" s="84"/>
+      <c r="E91" s="84"/>
+      <c r="F91" s="84"/>
+      <c r="G91" s="84"/>
+      <c r="H91" s="84"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="83">
+        <v>2</v>
+      </c>
+      <c r="B92" s="84" t="s">
+        <v>513</v>
+      </c>
+      <c r="C92" s="84"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="84"/>
+      <c r="F92" s="84"/>
+      <c r="G92" s="84"/>
+      <c r="H92" s="84"/>
+    </row>
+    <row r="93" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="83">
+        <v>3</v>
+      </c>
+      <c r="B93" s="84" t="s">
+        <v>514</v>
+      </c>
+      <c r="C93" s="84"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="84"/>
+      <c r="G93" s="84"/>
+      <c r="H93" s="84"/>
+    </row>
+    <row r="94" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="83">
+        <v>4</v>
+      </c>
+      <c r="B94" s="84" t="s">
+        <v>515</v>
+      </c>
+      <c r="C94" s="84"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="84"/>
+      <c r="H94" s="84"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="83"/>
+      <c r="B95" s="84"/>
+      <c r="C95" s="84"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="84"/>
+      <c r="F95" s="84"/>
+      <c r="G95" s="84"/>
+      <c r="H95" s="84"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="B96" s="80"/>
+      <c r="C96" s="80"/>
+      <c r="D96" s="80"/>
+      <c r="E96" s="80"/>
+      <c r="F96" s="80"/>
+      <c r="G96" s="80"/>
+      <c r="H96" s="80"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="83">
+        <v>1</v>
+      </c>
+      <c r="B97" s="84" t="s">
+        <v>517</v>
+      </c>
+      <c r="C97" s="84"/>
+      <c r="D97" s="84"/>
+      <c r="E97" s="84"/>
+      <c r="F97" s="84"/>
+      <c r="G97" s="84"/>
+      <c r="H97" s="84"/>
+    </row>
+    <row r="98" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="83">
+        <v>2</v>
+      </c>
+      <c r="B98" s="84" t="s">
+        <v>518</v>
+      </c>
+      <c r="C98" s="84"/>
+      <c r="D98" s="84"/>
+      <c r="E98" s="84"/>
+      <c r="F98" s="84"/>
+      <c r="G98" s="84"/>
+      <c r="H98" s="84"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="83">
+        <v>3</v>
+      </c>
+      <c r="B99" s="84" t="s">
+        <v>519</v>
+      </c>
+      <c r="C99" s="84"/>
+      <c r="D99" s="84"/>
+      <c r="E99" s="84"/>
+      <c r="F99" s="84"/>
+      <c r="G99" s="84"/>
+      <c r="H99" s="84"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="83"/>
+      <c r="B100" s="84"/>
+      <c r="C100" s="84"/>
+      <c r="D100" s="84"/>
+      <c r="E100" s="84"/>
+      <c r="F100" s="84"/>
+      <c r="G100" s="84"/>
+      <c r="H100" s="84"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="83"/>
+      <c r="B101" s="84"/>
+      <c r="C101" s="84"/>
+      <c r="D101" s="84"/>
+      <c r="E101" s="84"/>
+      <c r="F101" s="84"/>
+      <c r="G101" s="84"/>
+      <c r="H101" s="84"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="83"/>
+      <c r="B102" s="84"/>
+      <c r="C102" s="84"/>
+      <c r="D102" s="84"/>
+      <c r="E102" s="84"/>
+      <c r="F102" s="84"/>
+      <c r="G102" s="84"/>
+      <c r="H102" s="84"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="83"/>
+      <c r="B103" s="84"/>
+      <c r="C103" s="84"/>
+      <c r="D103" s="84"/>
+      <c r="E103" s="84"/>
+      <c r="F103" s="84"/>
+      <c r="G103" s="84"/>
+      <c r="H103" s="84"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="83"/>
+      <c r="B104" s="84"/>
+      <c r="C104" s="84"/>
+      <c r="D104" s="84"/>
+      <c r="E104" s="84"/>
+      <c r="F104" s="84"/>
+      <c r="G104" s="84"/>
+      <c r="H104" s="84"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="83"/>
+      <c r="B105" s="84"/>
+      <c r="C105" s="84"/>
+      <c r="D105" s="84"/>
+      <c r="E105" s="84"/>
+      <c r="F105" s="84"/>
+      <c r="G105" s="84"/>
+      <c r="H105" s="84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="111">
+    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="B105:H105"/>
+    <mergeCell ref="A96:H96"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="B101:H101"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="B103:H103"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B94:H94"/>
+    <mergeCell ref="B95:H95"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="A83:H83"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="A70:H70"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2931,20 +4704,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="91.85546875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="22.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="91.83203125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
         <v>430</v>
       </c>
       <c r="B1" s="41"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>72</v>
       </c>
@@ -2952,13 +4725,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>428</v>
       </c>
       <c r="B3" s="39"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>1</v>
       </c>
@@ -2966,7 +4739,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -2974,7 +4747,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>3</v>
       </c>
@@ -2982,7 +4755,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>4</v>
       </c>
@@ -2990,7 +4763,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>5</v>
       </c>
@@ -2998,7 +4771,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>6</v>
       </c>
@@ -3006,7 +4779,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>7</v>
       </c>
@@ -3014,13 +4787,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
         <v>238</v>
       </c>
       <c r="B11" s="40"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>1</v>
       </c>
@@ -3028,7 +4801,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>2</v>
       </c>
@@ -3036,7 +4809,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>3</v>
       </c>
@@ -3044,7 +4817,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>4</v>
       </c>
@@ -3052,7 +4825,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>5</v>
       </c>
@@ -3060,7 +4833,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>6</v>
       </c>
@@ -3068,10 +4841,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" s="19"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="19"/>
     </row>
   </sheetData>
@@ -3093,15 +4866,15 @@
       <selection activeCell="H26" sqref="G26:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="3"/>
+    <col min="1" max="1" width="32.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="75.5" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
         <v>81</v>
       </c>
@@ -3117,7 +4890,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="20"/>
@@ -3131,7 +4904,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>85</v>
       </c>
@@ -3142,7 +4915,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
         <v>82</v>
       </c>
@@ -3153,7 +4926,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="43"/>
       <c r="B5" s="1" t="s">
         <v>84</v>
@@ -3162,7 +4935,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="43"/>
       <c r="B6" s="1" t="s">
         <v>100</v>
@@ -3171,14 +4944,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="44"/>
       <c r="B7" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
         <v>92</v>
       </c>
@@ -3189,7 +4962,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43"/>
       <c r="B9" s="1" t="s">
         <v>98</v>
@@ -3198,7 +4971,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43"/>
       <c r="B10" s="1" t="s">
         <v>100</v>
@@ -3207,28 +4980,28 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43"/>
       <c r="B11" s="42"/>
       <c r="C11" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="43"/>
       <c r="B12" s="43"/>
       <c r="C12" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="43"/>
       <c r="B13" s="44"/>
       <c r="C13" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="44"/>
       <c r="B14" s="1" t="s">
         <v>102</v>
@@ -3237,7 +5010,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="42" t="s">
         <v>104</v>
       </c>
@@ -3248,7 +5021,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="44"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
@@ -3277,20 +5050,20 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="10" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>437</v>
       </c>
@@ -3302,7 +5075,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -3328,7 +5101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3354,7 +5127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3380,7 +5153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3406,7 +5179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3432,7 +5205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -3458,7 +5231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3484,7 +5257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>133</v>
       </c>
@@ -3527,20 +5300,20 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="3"/>
-    <col min="2" max="2" width="118.85546875" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="10.85546875" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="118.83203125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>438</v>
       </c>
       <c r="B1" s="37"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>136</v>
       </c>
@@ -3548,7 +5321,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -3556,7 +5329,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -3564,7 +5337,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -3572,7 +5345,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -3580,7 +5353,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -3588,7 +5361,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>6</v>
       </c>
@@ -3596,7 +5369,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>7</v>
       </c>
@@ -3604,7 +5377,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>8</v>
       </c>
@@ -3612,7 +5385,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>9</v>
       </c>
@@ -3620,7 +5393,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>10</v>
       </c>
@@ -3628,7 +5401,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>11</v>
       </c>
@@ -3636,7 +5409,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -3644,7 +5417,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -3652,7 +5425,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -3660,7 +5433,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>15</v>
       </c>
@@ -3668,7 +5441,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>16</v>
       </c>
@@ -3676,7 +5449,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>17</v>
       </c>
@@ -3684,7 +5457,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -3692,7 +5465,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -3700,7 +5473,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>20</v>
       </c>
@@ -3708,7 +5481,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>21</v>
       </c>
@@ -3716,7 +5489,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>22</v>
       </c>
@@ -3724,7 +5497,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>23</v>
       </c>
@@ -3732,7 +5505,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>24</v>
       </c>
@@ -3740,7 +5513,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>25</v>
       </c>
@@ -3748,7 +5521,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>26</v>
       </c>
@@ -3756,7 +5529,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>27</v>
       </c>
@@ -3781,18 +5554,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="65.28515625" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
         <v>439</v>
       </c>
       <c r="B1" s="45"/>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>136</v>
       </c>
@@ -3800,7 +5573,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -3808,7 +5581,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -3816,7 +5589,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -3824,7 +5597,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -3832,7 +5605,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -3840,7 +5613,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -3848,7 +5621,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -3856,7 +5629,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -3864,7 +5637,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -3872,7 +5645,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -3897,24 +5670,24 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>136</v>
       </c>
@@ -3924,7 +5697,7 @@
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
     </row>
-    <row r="3" spans="1:4" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>177</v>
       </c>
@@ -3932,133 +5705,133 @@
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-    </row>
-    <row r="5" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+    </row>
+    <row r="5" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-    </row>
-    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+    </row>
+    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-    </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+    </row>
+    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>136</v>
       </c>
@@ -4074,7 +5847,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>1</v>
       </c>
@@ -4088,7 +5861,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>2</v>
       </c>
@@ -4103,7 +5876,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>3</v>
       </c>
@@ -4115,7 +5888,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>4</v>
       </c>
@@ -4129,7 +5902,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>5</v>
       </c>
@@ -4143,7 +5916,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>6</v>
       </c>
@@ -4157,7 +5930,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>7</v>
       </c>
@@ -4171,7 +5944,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>8</v>
       </c>
@@ -4185,7 +5958,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>9</v>
       </c>
@@ -4197,7 +5970,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>10</v>
       </c>
@@ -4211,7 +5984,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>11</v>
       </c>
@@ -4223,7 +5996,7 @@
       </c>
       <c r="D28" s="54"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>12</v>
       </c>
@@ -4235,7 +6008,7 @@
       </c>
       <c r="D29" s="54"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>13</v>
       </c>
@@ -4249,7 +6022,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>14</v>
       </c>
@@ -4263,15 +6036,15 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-    </row>
-    <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+    </row>
+    <row r="33" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>136</v>
       </c>
@@ -4285,7 +6058,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>1</v>
       </c>
@@ -4300,7 +6073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>2</v>
       </c>
@@ -4315,7 +6088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>3</v>
       </c>
@@ -4334,7 +6107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>4</v>
       </c>
@@ -4353,7 +6126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>5</v>
       </c>
@@ -4372,7 +6145,7 @@
         <v>50.006666666666668</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>6</v>
       </c>
@@ -4387,7 +6160,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>7</v>
       </c>
@@ -4399,7 +6172,7 @@
       </c>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>8</v>
       </c>
@@ -4411,7 +6184,7 @@
       </c>
       <c r="D41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>9</v>
       </c>
@@ -4423,7 +6196,7 @@
       </c>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>10</v>
       </c>
@@ -4437,6 +6210,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
@@ -4453,9 +6229,6 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4471,16 +6244,16 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.85546875" style="10"/>
+    <col min="1" max="4" width="10.83203125" style="10"/>
     <col min="5" max="5" width="31" style="10" customWidth="1"/>
-    <col min="6" max="11" width="10.85546875" style="10"/>
-    <col min="12" max="12" width="57.85546875" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="10.85546875" style="10"/>
+    <col min="6" max="11" width="10.83203125" style="10"/>
+    <col min="12" max="12" width="57.83203125" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>210</v>
       </c>
@@ -4494,7 +6267,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -4508,7 +6281,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -4522,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -4536,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -4550,7 +6323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -4564,7 +6337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -4578,7 +6351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -4592,7 +6365,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -4606,7 +6379,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -4620,7 +6393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -4634,7 +6407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -4648,7 +6421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -4662,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -4676,13 +6449,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:5" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>218</v>
       </c>
@@ -4693,156 +6466,151 @@
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>1</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>2</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>3</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>4</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>5</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>6</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>7</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>8</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>9</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>10</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>11</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>12</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>13</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
@@ -4852,6 +6620,11 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4865,36 +6638,36 @@
       <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="0.140625" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" customWidth="1"/>
+    <col min="7" max="7" width="0.1640625" customWidth="1"/>
+    <col min="8" max="9" width="11.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
         <v>232</v>
       </c>
       <c r="B1" s="55"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="55" t="s">
         <v>245</v>
       </c>
       <c r="F1" s="55"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="23" t="s">
         <v>136</v>
       </c>
@@ -4902,27 +6675,27 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="63" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="F3" s="63"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="72"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="15">
         <v>1</v>
       </c>
@@ -4930,15 +6703,15 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="15">
         <v>2</v>
       </c>
@@ -4946,15 +6719,15 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="15">
         <v>3</v>
       </c>
@@ -4962,27 +6735,27 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="62" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="62"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="71"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="15">
         <v>1</v>
       </c>
@@ -4990,15 +6763,15 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="15">
         <v>2</v>
       </c>
@@ -5006,15 +6779,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="15">
         <v>3</v>
       </c>
@@ -5022,15 +6795,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="15">
         <v>4</v>
       </c>
@@ -5038,44 +6811,44 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-    </row>
-    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+    </row>
+    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>218</v>
       </c>
@@ -5092,760 +6865,760 @@
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>5</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="60" t="s">
         <v>259</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>6</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>7</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>8</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>9</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>10</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>11</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>12</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>13</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>14</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>15</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>16</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>17</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>18</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>19</v>
       </c>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>20</v>
       </c>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="64" t="s">
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="66"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="65"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <v>1</v>
       </c>
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>2</v>
       </c>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="D40" s="71" t="s">
+      <c r="D40" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="E40" s="71" t="s">
+      <c r="E40" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
         <v>3</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="E41" s="71" t="s">
+      <c r="E41" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>4</v>
       </c>
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="D42" s="71" t="s">
+      <c r="D42" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="E42" s="71" t="s">
+      <c r="E42" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <v>5</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="D43" s="71" t="s">
+      <c r="D43" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="E43" s="71" t="s">
+      <c r="E43" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>6</v>
       </c>
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="C44" s="71" t="s">
+      <c r="C44" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="D44" s="71" t="s">
+      <c r="D44" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="E44" s="71" t="s">
+      <c r="E44" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>7</v>
       </c>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="D45" s="71" t="s">
+      <c r="D45" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="E45" s="71" t="s">
+      <c r="E45" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>8</v>
       </c>
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="C46" s="71" t="s">
+      <c r="C46" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="D46" s="71" t="s">
+      <c r="D46" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="E46" s="71" t="s">
+      <c r="E46" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
         <v>9</v>
       </c>
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="C47" s="71" t="s">
+      <c r="C47" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="D47" s="71" t="s">
+      <c r="D47" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="E47" s="71" t="s">
+      <c r="E47" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>10</v>
       </c>
-      <c r="B48" s="71" t="s">
+      <c r="B48" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="C48" s="71" t="s">
+      <c r="C48" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="D48" s="71" t="s">
+      <c r="D48" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="E48" s="71" t="s">
+      <c r="E48" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
         <v>11</v>
       </c>
-      <c r="B49" s="71" t="s">
+      <c r="B49" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="C49" s="71" t="s">
+      <c r="C49" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="D49" s="71" t="s">
+      <c r="D49" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="E49" s="71" t="s">
+      <c r="E49" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
         <v>12</v>
       </c>
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="C50" s="71" t="s">
+      <c r="C50" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="D50" s="71" t="s">
+      <c r="D50" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="E50" s="71" t="s">
+      <c r="E50" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
         <v>13</v>
       </c>
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="C51" s="71" t="s">
+      <c r="C51" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="D51" s="71" t="s">
+      <c r="D51" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="E51" s="71" t="s">
+      <c r="E51" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
         <v>14</v>
       </c>
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="C52" s="71" t="s">
+      <c r="C52" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="D52" s="71" t="s">
+      <c r="D52" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="E52" s="71" t="s">
+      <c r="E52" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
         <v>15</v>
       </c>
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="C53" s="71" t="s">
+      <c r="C53" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="D53" s="71" t="s">
+      <c r="D53" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="E53" s="71" t="s">
+      <c r="E53" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
         <v>16</v>
       </c>
-      <c r="B54" s="71" t="s">
+      <c r="B54" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="C54" s="71" t="s">
+      <c r="C54" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="D54" s="71" t="s">
+      <c r="D54" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="E54" s="71" t="s">
+      <c r="E54" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
         <v>17</v>
       </c>
-      <c r="B55" s="71" t="s">
+      <c r="B55" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="C55" s="71" t="s">
+      <c r="C55" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="D55" s="71" t="s">
+      <c r="D55" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="E55" s="71" t="s">
+      <c r="E55" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
         <v>18</v>
       </c>
-      <c r="B56" s="71" t="s">
+      <c r="B56" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="C56" s="71" t="s">
+      <c r="C56" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="D56" s="71" t="s">
+      <c r="D56" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="E56" s="71" t="s">
+      <c r="E56" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
         <v>19</v>
       </c>
-      <c r="B57" s="71" t="s">
+      <c r="B57" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="C57" s="71" t="s">
+      <c r="C57" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="D57" s="71" t="s">
+      <c r="D57" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="E57" s="71" t="s">
+      <c r="E57" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>20</v>
       </c>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="D58" s="51" t="s">
+      <c r="D58" s="46" t="s">
         <v>294</v>
       </c>
       <c r="E58" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="68" t="s">
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+    </row>
+    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="70"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="59"/>
+    </row>
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
         <v>218</v>
       </c>
@@ -5862,646 +7635,646 @@
       <c r="H60" s="56"/>
       <c r="I60" s="56"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
         <v>1</v>
       </c>
-      <c r="B62" s="71" t="s">
+      <c r="B62" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="51"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
         <v>2</v>
       </c>
-      <c r="B63" s="71" t="s">
+      <c r="B63" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="13">
         <v>3</v>
       </c>
-      <c r="B64" s="71" t="s">
+      <c r="B64" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="13">
         <v>4</v>
       </c>
-      <c r="B65" s="71" t="s">
+      <c r="B65" s="60" t="s">
         <v>299</v>
       </c>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="13">
         <v>5</v>
       </c>
-      <c r="B66" s="71" t="s">
+      <c r="B66" s="60" t="s">
         <v>300</v>
       </c>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="13">
         <v>6</v>
       </c>
-      <c r="B67" s="71" t="s">
+      <c r="B67" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="51"/>
-      <c r="I67" s="51"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="13">
         <v>7</v>
       </c>
-      <c r="B68" s="71" t="s">
+      <c r="B68" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
-      <c r="I68" s="51"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="13">
         <v>8</v>
       </c>
-      <c r="B69" s="71" t="s">
+      <c r="B69" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="C69" s="71"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="13">
         <v>9</v>
       </c>
-      <c r="B70" s="71" t="s">
+      <c r="B70" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="51"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C70" s="60"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="13">
         <v>10</v>
       </c>
-      <c r="B71" s="71" t="s">
+      <c r="B71" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="51"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="13">
         <v>11</v>
       </c>
-      <c r="B72" s="71" t="s">
+      <c r="B72" s="60" t="s">
         <v>306</v>
       </c>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="72"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="13">
         <v>12</v>
       </c>
-      <c r="B73" s="71" t="s">
+      <c r="B73" s="60" t="s">
         <v>307</v>
       </c>
-      <c r="C73" s="71"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="51"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="13">
         <v>13</v>
       </c>
-      <c r="B74" s="71" t="s">
+      <c r="B74" s="60" t="s">
         <v>308</v>
       </c>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51"/>
-      <c r="I74" s="51"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="13">
         <v>14</v>
       </c>
-      <c r="B75" s="71" t="s">
+      <c r="B75" s="60" t="s">
         <v>309</v>
       </c>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="51"/>
-      <c r="G75" s="51"/>
-      <c r="H75" s="51"/>
-      <c r="I75" s="51"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="13">
         <v>15</v>
       </c>
-      <c r="B76" s="71" t="s">
+      <c r="B76" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="13">
         <v>16</v>
       </c>
-      <c r="B77" s="71" t="s">
+      <c r="B77" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="51"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="13">
         <v>17</v>
       </c>
-      <c r="B78" s="71" t="s">
+      <c r="B78" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="13">
         <v>18</v>
       </c>
-      <c r="B79" s="71" t="s">
+      <c r="B79" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="51"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="51"/>
-      <c r="I79" s="51"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C79" s="60"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="13">
         <v>19</v>
       </c>
-      <c r="B80" s="71" t="s">
+      <c r="B80" s="60" t="s">
         <v>314</v>
       </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="51"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="51"/>
-      <c r="I80" s="51"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
         <v>20</v>
       </c>
-      <c r="B81" s="71" t="s">
+      <c r="B81" s="60" t="s">
         <v>315</v>
       </c>
-      <c r="C81" s="71"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="71"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="51"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="64" t="s">
+      <c r="C81" s="60"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="65"/>
-      <c r="I82" s="66"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="64"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="65"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <v>1</v>
       </c>
-      <c r="B83" s="51" t="s">
+      <c r="B83" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="C83" s="51"/>
-      <c r="D83" s="51"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="51"/>
-      <c r="G83" s="51"/>
-      <c r="H83" s="51"/>
-      <c r="I83" s="51"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
         <v>2</v>
       </c>
-      <c r="B84" s="51" t="s">
+      <c r="B84" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="51"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <v>3</v>
       </c>
-      <c r="B85" s="51" t="s">
+      <c r="B85" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="51"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="51"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>4</v>
       </c>
-      <c r="B86" s="51" t="s">
+      <c r="B86" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="51"/>
-      <c r="I86" s="51"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <v>5</v>
       </c>
-      <c r="B87" s="51" t="s">
+      <c r="B87" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="51"/>
-      <c r="I87" s="51"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="11">
         <v>6</v>
       </c>
-      <c r="B88" s="51" t="s">
+      <c r="B88" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="C88" s="51"/>
-      <c r="D88" s="51"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="51"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="51"/>
-      <c r="I88" s="51"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C88" s="46"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
         <v>7</v>
       </c>
-      <c r="B89" s="51" t="s">
+      <c r="B89" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="C89" s="51"/>
-      <c r="D89" s="51"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="51"/>
-      <c r="G89" s="51"/>
-      <c r="H89" s="51"/>
-      <c r="I89" s="51"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <v>8</v>
       </c>
-      <c r="B90" s="51" t="s">
+      <c r="B90" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="C90" s="51"/>
-      <c r="D90" s="51"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="51"/>
-      <c r="G90" s="51"/>
-      <c r="H90" s="51"/>
-      <c r="I90" s="51"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="11">
         <v>9</v>
       </c>
-      <c r="B91" s="51" t="s">
+      <c r="B91" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="51"/>
-      <c r="G91" s="51"/>
-      <c r="H91" s="51"/>
-      <c r="I91" s="51"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C91" s="46"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="46"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="11">
         <v>10</v>
       </c>
-      <c r="B92" s="51" t="s">
+      <c r="B92" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="C92" s="51"/>
-      <c r="D92" s="51"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="51"/>
-      <c r="G92" s="51"/>
-      <c r="H92" s="51"/>
-      <c r="I92" s="51"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <v>11</v>
       </c>
-      <c r="B93" s="51" t="s">
+      <c r="B93" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="C93" s="51"/>
-      <c r="D93" s="51"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="51"/>
-      <c r="G93" s="51"/>
-      <c r="H93" s="51"/>
-      <c r="I93" s="51"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C93" s="46"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="46"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <v>12</v>
       </c>
-      <c r="B94" s="51" t="s">
+      <c r="B94" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="C94" s="51"/>
-      <c r="D94" s="51"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="51"/>
-      <c r="G94" s="51"/>
-      <c r="H94" s="51"/>
-      <c r="I94" s="51"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="46"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="46"/>
+      <c r="I94" s="46"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
         <v>13</v>
       </c>
-      <c r="B95" s="51" t="s">
+      <c r="B95" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="C95" s="51"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="51"/>
-      <c r="F95" s="51"/>
-      <c r="G95" s="51"/>
-      <c r="H95" s="51"/>
-      <c r="I95" s="51"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C95" s="46"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="11">
         <v>14</v>
       </c>
-      <c r="B96" s="51" t="s">
+      <c r="B96" s="46" t="s">
         <v>328</v>
       </c>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="51"/>
-      <c r="I96" s="51"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C96" s="46"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="46"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="11">
         <v>15</v>
       </c>
-      <c r="B97" s="51" t="s">
+      <c r="B97" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="51"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="51"/>
-      <c r="I97" s="51"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C97" s="46"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="46"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="11">
         <v>16</v>
       </c>
-      <c r="B98" s="51" t="s">
+      <c r="B98" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="51"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="51"/>
-      <c r="I98" s="51"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C98" s="46"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="11">
         <v>17</v>
       </c>
-      <c r="B99" s="51" t="s">
+      <c r="B99" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="C99" s="51"/>
-      <c r="D99" s="51"/>
-      <c r="E99" s="51"/>
-      <c r="F99" s="51"/>
-      <c r="G99" s="51"/>
-      <c r="H99" s="51"/>
-      <c r="I99" s="51"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C99" s="46"/>
+      <c r="D99" s="46"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="11">
         <v>18</v>
       </c>
-      <c r="B100" s="51" t="s">
+      <c r="B100" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="C100" s="51"/>
-      <c r="D100" s="51"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="51"/>
-      <c r="G100" s="51"/>
-      <c r="H100" s="51"/>
-      <c r="I100" s="51"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C100" s="46"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="46"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="46"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="46"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="11">
         <v>19</v>
       </c>
-      <c r="B101" s="51" t="s">
+      <c r="B101" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="C101" s="51"/>
-      <c r="D101" s="51"/>
-      <c r="E101" s="51"/>
-      <c r="F101" s="51"/>
-      <c r="G101" s="51"/>
-      <c r="H101" s="51"/>
-      <c r="I101" s="51"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="46"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="11">
         <v>20</v>
       </c>
-      <c r="B102" s="51" t="s">
+      <c r="B102" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="C102" s="51"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="51"/>
-      <c r="G102" s="51"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="51"/>
-    </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="68" t="s">
+      <c r="C102" s="46"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="46"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="46"/>
+    </row>
+    <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="B103" s="69"/>
-      <c r="C103" s="69"/>
-      <c r="D103" s="69"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="69"/>
-      <c r="H103" s="69"/>
-      <c r="I103" s="70"/>
-    </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B103" s="58"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="59"/>
+    </row>
+    <row r="104" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="28" t="s">
         <v>218</v>
       </c>
@@ -6518,688 +8291,819 @@
       <c r="H104" s="56"/>
       <c r="I104" s="56"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="14"/>
-      <c r="B105" s="67" t="s">
+      <c r="B105" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="C105" s="67"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="67"/>
-      <c r="I105" s="67"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C105" s="61"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="11">
         <v>1</v>
       </c>
-      <c r="B106" s="51" t="s">
+      <c r="B106" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51"/>
-      <c r="E106" s="51"/>
-      <c r="F106" s="51"/>
-      <c r="G106" s="51"/>
-      <c r="H106" s="51"/>
-      <c r="I106" s="51"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C106" s="46"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="46"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="11">
         <v>2</v>
       </c>
-      <c r="B107" s="51" t="s">
+      <c r="B107" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="51"/>
-      <c r="G107" s="51"/>
-      <c r="H107" s="51"/>
-      <c r="I107" s="51"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C107" s="46"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="46"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="46"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="11">
         <v>3</v>
       </c>
-      <c r="B108" s="51" t="s">
+      <c r="B108" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="C108" s="51"/>
-      <c r="D108" s="51"/>
-      <c r="E108" s="51"/>
-      <c r="F108" s="51"/>
-      <c r="G108" s="51"/>
-      <c r="H108" s="51"/>
-      <c r="I108" s="51"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C108" s="46"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="46"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="46"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="11">
         <v>4</v>
       </c>
-      <c r="B109" s="51" t="s">
+      <c r="B109" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="C109" s="51"/>
-      <c r="D109" s="51"/>
-      <c r="E109" s="51"/>
-      <c r="F109" s="51"/>
-      <c r="G109" s="51"/>
-      <c r="H109" s="51"/>
-      <c r="I109" s="51"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C109" s="46"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="46"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="46"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="11">
         <v>5</v>
       </c>
-      <c r="B110" s="51" t="s">
+      <c r="B110" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="C110" s="51"/>
-      <c r="D110" s="51"/>
-      <c r="E110" s="51"/>
-      <c r="F110" s="51"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="51"/>
-      <c r="I110" s="51"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C110" s="46"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="46"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="46"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="11">
         <v>6</v>
       </c>
-      <c r="B111" s="51" t="s">
+      <c r="B111" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="C111" s="51"/>
-      <c r="D111" s="51"/>
-      <c r="E111" s="51"/>
-      <c r="F111" s="51"/>
-      <c r="G111" s="51"/>
-      <c r="H111" s="51"/>
-      <c r="I111" s="51"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C111" s="46"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="46"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="46"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="11">
         <v>7</v>
       </c>
-      <c r="B112" s="51" t="s">
+      <c r="B112" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
-      <c r="G112" s="51"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="51"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C112" s="46"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="46"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="46"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="11">
         <v>8</v>
       </c>
-      <c r="B113" s="51" t="s">
+      <c r="B113" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="C113" s="51"/>
-      <c r="D113" s="51"/>
-      <c r="E113" s="51"/>
-      <c r="F113" s="51"/>
-      <c r="G113" s="51"/>
-      <c r="H113" s="51"/>
-      <c r="I113" s="51"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C113" s="46"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="46"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="11">
         <v>9</v>
       </c>
-      <c r="B114" s="51" t="s">
+      <c r="B114" s="46" t="s">
         <v>344</v>
       </c>
-      <c r="C114" s="51"/>
-      <c r="D114" s="51"/>
-      <c r="E114" s="51"/>
-      <c r="F114" s="51"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="51"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C114" s="46"/>
+      <c r="D114" s="46"/>
+      <c r="E114" s="46"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="46"/>
+      <c r="I114" s="46"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="11">
         <v>10</v>
       </c>
-      <c r="B115" s="51" t="s">
+      <c r="B115" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="C115" s="51"/>
-      <c r="D115" s="51"/>
-      <c r="E115" s="51"/>
-      <c r="F115" s="51"/>
-      <c r="G115" s="51"/>
-      <c r="H115" s="51"/>
-      <c r="I115" s="51"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C115" s="46"/>
+      <c r="D115" s="46"/>
+      <c r="E115" s="46"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="46"/>
+      <c r="H115" s="46"/>
+      <c r="I115" s="46"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="11">
         <v>11</v>
       </c>
-      <c r="B116" s="51" t="s">
+      <c r="B116" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="51"/>
-      <c r="F116" s="51"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="51"/>
-      <c r="I116" s="51"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C116" s="46"/>
+      <c r="D116" s="46"/>
+      <c r="E116" s="46"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="46"/>
+      <c r="I116" s="46"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="11">
         <v>12</v>
       </c>
-      <c r="B117" s="51" t="s">
+      <c r="B117" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="C117" s="51"/>
-      <c r="D117" s="51"/>
-      <c r="E117" s="51"/>
-      <c r="F117" s="51"/>
-      <c r="G117" s="51"/>
-      <c r="H117" s="51"/>
-      <c r="I117" s="51"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C117" s="46"/>
+      <c r="D117" s="46"/>
+      <c r="E117" s="46"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="46"/>
+      <c r="I117" s="46"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="11">
         <v>13</v>
       </c>
-      <c r="B118" s="51" t="s">
+      <c r="B118" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="C118" s="51"/>
-      <c r="D118" s="51"/>
-      <c r="E118" s="51"/>
-      <c r="F118" s="51"/>
-      <c r="G118" s="51"/>
-      <c r="H118" s="51"/>
-      <c r="I118" s="51"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C118" s="46"/>
+      <c r="D118" s="46"/>
+      <c r="E118" s="46"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="46"/>
+      <c r="H118" s="46"/>
+      <c r="I118" s="46"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="11">
         <v>14</v>
       </c>
-      <c r="B119" s="51" t="s">
+      <c r="B119" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="C119" s="51"/>
-      <c r="D119" s="51"/>
-      <c r="E119" s="51"/>
-      <c r="F119" s="51"/>
-      <c r="G119" s="51"/>
-      <c r="H119" s="51"/>
-      <c r="I119" s="51"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C119" s="46"/>
+      <c r="D119" s="46"/>
+      <c r="E119" s="46"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="46"/>
+      <c r="H119" s="46"/>
+      <c r="I119" s="46"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="11">
         <v>15</v>
       </c>
-      <c r="B120" s="51" t="s">
+      <c r="B120" s="46" t="s">
         <v>350</v>
       </c>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="51"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="51"/>
-      <c r="I120" s="51"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C120" s="46"/>
+      <c r="D120" s="46"/>
+      <c r="E120" s="46"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="46"/>
+      <c r="I120" s="46"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="11">
         <v>16</v>
       </c>
-      <c r="B121" s="51" t="s">
+      <c r="B121" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="C121" s="51"/>
-      <c r="D121" s="51"/>
-      <c r="E121" s="51"/>
-      <c r="F121" s="51"/>
-      <c r="G121" s="51"/>
-      <c r="H121" s="51"/>
-      <c r="I121" s="51"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C121" s="46"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="46"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="46"/>
+      <c r="I121" s="46"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="11">
         <v>17</v>
       </c>
-      <c r="B122" s="51" t="s">
+      <c r="B122" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="C122" s="51"/>
-      <c r="D122" s="51"/>
-      <c r="E122" s="51"/>
-      <c r="F122" s="51"/>
-      <c r="G122" s="51"/>
-      <c r="H122" s="51"/>
-      <c r="I122" s="51"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C122" s="46"/>
+      <c r="D122" s="46"/>
+      <c r="E122" s="46"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="46"/>
+      <c r="I122" s="46"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="11">
         <v>18</v>
       </c>
-      <c r="B123" s="51" t="s">
+      <c r="B123" s="46" t="s">
         <v>353</v>
       </c>
-      <c r="C123" s="51"/>
-      <c r="D123" s="51"/>
-      <c r="E123" s="51"/>
-      <c r="F123" s="51"/>
-      <c r="G123" s="51"/>
-      <c r="H123" s="51"/>
-      <c r="I123" s="51"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C123" s="46"/>
+      <c r="D123" s="46"/>
+      <c r="E123" s="46"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="46"/>
+      <c r="H123" s="46"/>
+      <c r="I123" s="46"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="11">
         <v>19</v>
       </c>
-      <c r="B124" s="51" t="s">
+      <c r="B124" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="C124" s="51"/>
-      <c r="D124" s="51"/>
-      <c r="E124" s="51"/>
-      <c r="F124" s="51"/>
-      <c r="G124" s="51"/>
-      <c r="H124" s="51"/>
-      <c r="I124" s="51"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C124" s="46"/>
+      <c r="D124" s="46"/>
+      <c r="E124" s="46"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+      <c r="H124" s="46"/>
+      <c r="I124" s="46"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="11">
         <v>20</v>
       </c>
-      <c r="B125" s="51" t="s">
+      <c r="B125" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="C125" s="51"/>
-      <c r="D125" s="51"/>
-      <c r="E125" s="51"/>
-      <c r="F125" s="51"/>
-      <c r="G125" s="51"/>
-      <c r="H125" s="51"/>
-      <c r="I125" s="51"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="64" t="s">
+      <c r="C125" s="46"/>
+      <c r="D125" s="46"/>
+      <c r="E125" s="46"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="46"/>
+      <c r="I125" s="46"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="B126" s="65"/>
-      <c r="C126" s="65"/>
-      <c r="D126" s="65"/>
-      <c r="E126" s="65"/>
-      <c r="F126" s="65"/>
-      <c r="G126" s="65"/>
-      <c r="H126" s="65"/>
-      <c r="I126" s="66"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="64"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="64"/>
+      <c r="E126" s="64"/>
+      <c r="F126" s="64"/>
+      <c r="G126" s="64"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="65"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="11">
         <v>1</v>
       </c>
-      <c r="B127" s="51" t="s">
+      <c r="B127" s="46" t="s">
         <v>356</v>
       </c>
-      <c r="C127" s="51"/>
-      <c r="D127" s="51"/>
-      <c r="E127" s="51"/>
-      <c r="F127" s="51"/>
-      <c r="G127" s="51"/>
-      <c r="H127" s="51"/>
-      <c r="I127" s="51"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C127" s="46"/>
+      <c r="D127" s="46"/>
+      <c r="E127" s="46"/>
+      <c r="F127" s="46"/>
+      <c r="G127" s="46"/>
+      <c r="H127" s="46"/>
+      <c r="I127" s="46"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="11">
         <v>2</v>
       </c>
-      <c r="B128" s="51" t="s">
+      <c r="B128" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="C128" s="51"/>
-      <c r="D128" s="51"/>
-      <c r="E128" s="51"/>
-      <c r="F128" s="51"/>
-      <c r="G128" s="51"/>
-      <c r="H128" s="51"/>
-      <c r="I128" s="51"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C128" s="46"/>
+      <c r="D128" s="46"/>
+      <c r="E128" s="46"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="46"/>
+      <c r="H128" s="46"/>
+      <c r="I128" s="46"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="11">
         <v>3</v>
       </c>
-      <c r="B129" s="51" t="s">
+      <c r="B129" s="46" t="s">
         <v>358</v>
       </c>
-      <c r="C129" s="51"/>
-      <c r="D129" s="51"/>
-      <c r="E129" s="51"/>
-      <c r="F129" s="51"/>
-      <c r="G129" s="51"/>
-      <c r="H129" s="51"/>
-      <c r="I129" s="51"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C129" s="46"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="46"/>
+      <c r="F129" s="46"/>
+      <c r="G129" s="46"/>
+      <c r="H129" s="46"/>
+      <c r="I129" s="46"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="11">
         <v>4</v>
       </c>
-      <c r="B130" s="51" t="s">
+      <c r="B130" s="46" t="s">
         <v>359</v>
       </c>
-      <c r="C130" s="51"/>
-      <c r="D130" s="51"/>
-      <c r="E130" s="51"/>
-      <c r="F130" s="51"/>
-      <c r="G130" s="51"/>
-      <c r="H130" s="51"/>
-      <c r="I130" s="51"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C130" s="46"/>
+      <c r="D130" s="46"/>
+      <c r="E130" s="46"/>
+      <c r="F130" s="46"/>
+      <c r="G130" s="46"/>
+      <c r="H130" s="46"/>
+      <c r="I130" s="46"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="11">
         <v>5</v>
       </c>
-      <c r="B131" s="51" t="s">
+      <c r="B131" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="C131" s="51"/>
-      <c r="D131" s="51"/>
-      <c r="E131" s="51"/>
-      <c r="F131" s="51"/>
-      <c r="G131" s="51"/>
-      <c r="H131" s="51"/>
-      <c r="I131" s="51"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C131" s="46"/>
+      <c r="D131" s="46"/>
+      <c r="E131" s="46"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="46"/>
+      <c r="H131" s="46"/>
+      <c r="I131" s="46"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="11">
         <v>6</v>
       </c>
-      <c r="B132" s="51" t="s">
+      <c r="B132" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="C132" s="51"/>
-      <c r="D132" s="51"/>
-      <c r="E132" s="51"/>
-      <c r="F132" s="51"/>
-      <c r="G132" s="51"/>
-      <c r="H132" s="51"/>
-      <c r="I132" s="51"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C132" s="46"/>
+      <c r="D132" s="46"/>
+      <c r="E132" s="46"/>
+      <c r="F132" s="46"/>
+      <c r="G132" s="46"/>
+      <c r="H132" s="46"/>
+      <c r="I132" s="46"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="11">
         <v>7</v>
       </c>
-      <c r="B133" s="51" t="s">
+      <c r="B133" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="C133" s="51"/>
-      <c r="D133" s="51"/>
-      <c r="E133" s="51"/>
-      <c r="F133" s="51"/>
-      <c r="G133" s="51"/>
-      <c r="H133" s="51"/>
-      <c r="I133" s="51"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C133" s="46"/>
+      <c r="D133" s="46"/>
+      <c r="E133" s="46"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="46"/>
+      <c r="H133" s="46"/>
+      <c r="I133" s="46"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="11">
         <v>8</v>
       </c>
-      <c r="B134" s="51" t="s">
+      <c r="B134" s="46" t="s">
         <v>363</v>
       </c>
-      <c r="C134" s="51"/>
-      <c r="D134" s="51"/>
-      <c r="E134" s="51"/>
-      <c r="F134" s="51"/>
-      <c r="G134" s="51"/>
-      <c r="H134" s="51"/>
-      <c r="I134" s="51"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C134" s="46"/>
+      <c r="D134" s="46"/>
+      <c r="E134" s="46"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="46"/>
+      <c r="H134" s="46"/>
+      <c r="I134" s="46"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="11">
         <v>9</v>
       </c>
-      <c r="B135" s="51" t="s">
+      <c r="B135" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="C135" s="51"/>
-      <c r="D135" s="51"/>
-      <c r="E135" s="51"/>
-      <c r="F135" s="51"/>
-      <c r="G135" s="51"/>
-      <c r="H135" s="51"/>
-      <c r="I135" s="51"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C135" s="46"/>
+      <c r="D135" s="46"/>
+      <c r="E135" s="46"/>
+      <c r="F135" s="46"/>
+      <c r="G135" s="46"/>
+      <c r="H135" s="46"/>
+      <c r="I135" s="46"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="11">
         <v>10</v>
       </c>
-      <c r="B136" s="51" t="s">
+      <c r="B136" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="C136" s="51"/>
-      <c r="D136" s="51"/>
-      <c r="E136" s="51"/>
-      <c r="F136" s="51"/>
-      <c r="G136" s="51"/>
-      <c r="H136" s="51"/>
-      <c r="I136" s="51"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C136" s="46"/>
+      <c r="D136" s="46"/>
+      <c r="E136" s="46"/>
+      <c r="F136" s="46"/>
+      <c r="G136" s="46"/>
+      <c r="H136" s="46"/>
+      <c r="I136" s="46"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="11">
         <v>11</v>
       </c>
-      <c r="B137" s="51" t="s">
+      <c r="B137" s="46" t="s">
         <v>366</v>
       </c>
-      <c r="C137" s="51"/>
-      <c r="D137" s="51"/>
-      <c r="E137" s="51"/>
-      <c r="F137" s="51"/>
-      <c r="G137" s="51"/>
-      <c r="H137" s="51"/>
-      <c r="I137" s="51"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C137" s="46"/>
+      <c r="D137" s="46"/>
+      <c r="E137" s="46"/>
+      <c r="F137" s="46"/>
+      <c r="G137" s="46"/>
+      <c r="H137" s="46"/>
+      <c r="I137" s="46"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="11">
         <v>12</v>
       </c>
-      <c r="B138" s="51" t="s">
+      <c r="B138" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="C138" s="51"/>
-      <c r="D138" s="51"/>
-      <c r="E138" s="51"/>
-      <c r="F138" s="51"/>
-      <c r="G138" s="51"/>
-      <c r="H138" s="51"/>
-      <c r="I138" s="51"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C138" s="46"/>
+      <c r="D138" s="46"/>
+      <c r="E138" s="46"/>
+      <c r="F138" s="46"/>
+      <c r="G138" s="46"/>
+      <c r="H138" s="46"/>
+      <c r="I138" s="46"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="11">
         <v>13</v>
       </c>
-      <c r="B139" s="51" t="s">
+      <c r="B139" s="46" t="s">
         <v>368</v>
       </c>
-      <c r="C139" s="51"/>
-      <c r="D139" s="51"/>
-      <c r="E139" s="51"/>
-      <c r="F139" s="51"/>
-      <c r="G139" s="51"/>
-      <c r="H139" s="51"/>
-      <c r="I139" s="51"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C139" s="46"/>
+      <c r="D139" s="46"/>
+      <c r="E139" s="46"/>
+      <c r="F139" s="46"/>
+      <c r="G139" s="46"/>
+      <c r="H139" s="46"/>
+      <c r="I139" s="46"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="11">
         <v>14</v>
       </c>
-      <c r="B140" s="51" t="s">
+      <c r="B140" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="C140" s="51"/>
-      <c r="D140" s="51"/>
-      <c r="E140" s="51"/>
-      <c r="F140" s="51"/>
-      <c r="G140" s="51"/>
-      <c r="H140" s="51"/>
-      <c r="I140" s="51"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C140" s="46"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="46"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="46"/>
+      <c r="H140" s="46"/>
+      <c r="I140" s="46"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="11">
         <v>15</v>
       </c>
-      <c r="B141" s="51" t="s">
+      <c r="B141" s="46" t="s">
         <v>370</v>
       </c>
-      <c r="C141" s="51"/>
-      <c r="D141" s="51"/>
-      <c r="E141" s="51"/>
-      <c r="F141" s="51"/>
-      <c r="G141" s="51"/>
-      <c r="H141" s="51"/>
-      <c r="I141" s="51"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C141" s="46"/>
+      <c r="D141" s="46"/>
+      <c r="E141" s="46"/>
+      <c r="F141" s="46"/>
+      <c r="G141" s="46"/>
+      <c r="H141" s="46"/>
+      <c r="I141" s="46"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="11">
         <v>16</v>
       </c>
-      <c r="B142" s="51" t="s">
+      <c r="B142" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="C142" s="51"/>
-      <c r="D142" s="51"/>
-      <c r="E142" s="51"/>
-      <c r="F142" s="51"/>
-      <c r="G142" s="51"/>
-      <c r="H142" s="51"/>
-      <c r="I142" s="51"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C142" s="46"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="46"/>
+      <c r="H142" s="46"/>
+      <c r="I142" s="46"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="11">
         <v>17</v>
       </c>
-      <c r="B143" s="51" t="s">
+      <c r="B143" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="C143" s="51"/>
-      <c r="D143" s="51"/>
-      <c r="E143" s="51"/>
-      <c r="F143" s="51"/>
-      <c r="G143" s="51"/>
-      <c r="H143" s="51"/>
-      <c r="I143" s="51"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C143" s="46"/>
+      <c r="D143" s="46"/>
+      <c r="E143" s="46"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="46"/>
+      <c r="H143" s="46"/>
+      <c r="I143" s="46"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="11">
         <v>18</v>
       </c>
-      <c r="B144" s="51" t="s">
+      <c r="B144" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="C144" s="51"/>
-      <c r="D144" s="51"/>
-      <c r="E144" s="51"/>
-      <c r="F144" s="51"/>
-      <c r="G144" s="51"/>
-      <c r="H144" s="51"/>
-      <c r="I144" s="51"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C144" s="46"/>
+      <c r="D144" s="46"/>
+      <c r="E144" s="46"/>
+      <c r="F144" s="46"/>
+      <c r="G144" s="46"/>
+      <c r="H144" s="46"/>
+      <c r="I144" s="46"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="11">
         <v>19</v>
       </c>
-      <c r="B145" s="51" t="s">
+      <c r="B145" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="C145" s="51"/>
-      <c r="D145" s="51"/>
-      <c r="E145" s="51"/>
-      <c r="F145" s="51"/>
-      <c r="G145" s="51"/>
-      <c r="H145" s="51"/>
-      <c r="I145" s="51"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C145" s="46"/>
+      <c r="D145" s="46"/>
+      <c r="E145" s="46"/>
+      <c r="F145" s="46"/>
+      <c r="G145" s="46"/>
+      <c r="H145" s="46"/>
+      <c r="I145" s="46"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="11">
         <v>20</v>
       </c>
-      <c r="B146" s="51" t="s">
+      <c r="B146" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="C146" s="51"/>
-      <c r="D146" s="51"/>
-      <c r="E146" s="51"/>
-      <c r="F146" s="51"/>
-      <c r="G146" s="51"/>
-      <c r="H146" s="51"/>
-      <c r="I146" s="51"/>
+      <c r="C146" s="46"/>
+      <c r="D146" s="46"/>
+      <c r="E146" s="46"/>
+      <c r="F146" s="46"/>
+      <c r="G146" s="46"/>
+      <c r="H146" s="46"/>
+      <c r="I146" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="263">
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="C1:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="F144:I144"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="F145:I145"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:I146"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="F139:I139"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="F141:I141"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="F142:I142"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="F143:I143"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="F135:I135"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="F136:I136"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="F137:I137"/>
+    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="B131:E131"/>
+    <mergeCell ref="F131:I131"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="F132:I132"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="F133:I133"/>
+    <mergeCell ref="A126:I126"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="F127:I127"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="F124:I124"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="B105:I105"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="F106:I106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="F107:I107"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="F102:I102"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="A103:I103"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="F104:I104"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:I60"/>
     <mergeCell ref="B54:E54"/>
     <mergeCell ref="F54:I54"/>
     <mergeCell ref="A38:I38"/>
@@ -7224,191 +9128,60 @@
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="F44:I44"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="A59:I59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="A82:I82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="F101:I101"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="F94:I94"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="F95:I95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="B105:I105"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="F106:I106"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="F107:I107"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="F102:I102"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="A103:I103"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="F104:I104"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="F109:I109"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="F112:I112"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="B119:E119"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F125:I125"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="F121:I121"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="A126:I126"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="F127:I127"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="F123:I123"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="F124:I124"/>
-    <mergeCell ref="B125:E125"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="B131:E131"/>
-    <mergeCell ref="F131:I131"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="F132:I132"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="F133:I133"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="B135:E135"/>
-    <mergeCell ref="F135:I135"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="F136:I136"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="F137:I137"/>
-    <mergeCell ref="B138:E138"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="C1:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="F144:I144"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="F145:I145"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:I146"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="F139:I139"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="F141:I141"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="F142:I142"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="F143:I143"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/VISHWANATH_TAWARE_MT.xlsx
+++ b/VISHWANATH_TAWARE_MT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishwanathtaware/STUDY/SEED_SDET_COURSE_MANUAL_TESTING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779E67C7-F040-D64E-B118-6C656E0B9216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEC636F-CA46-CE4A-A1B1-EE58E0C19E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="Chapter_11" sheetId="8" r:id="rId8"/>
     <sheet name="Excerise_7" sheetId="9" r:id="rId9"/>
     <sheet name="Exercise_8" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
+    <sheet name="Exercise_9" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="523">
   <si>
     <t>Test_Case_ID</t>
   </si>
@@ -1456,9 +1456,6 @@
     <t>To verify Setting passing % using valid data</t>
   </si>
   <si>
-    <t>To verify Administrator should nor  be able to create, modify and remove users from the system. Using Invalid Data</t>
-  </si>
-  <si>
     <t>To verify Admin should not be able to add new subject and remove existing subject using invalid data</t>
   </si>
   <si>
@@ -1616,6 +1613,18 @@
   </si>
   <si>
     <t>Trainer should be able to configure paper pattern , select difficulty level , select passing marks %</t>
+  </si>
+  <si>
+    <t>Councellor should able to register student</t>
+  </si>
+  <si>
+    <t>Examiner should be able to create batch and allocate exam</t>
+  </si>
+  <si>
+    <t>Student should be able to attempt exam and view his result</t>
+  </si>
+  <si>
+    <t>To verify Administrator should not  be able to create, modify and remove users from the system. Using Invalid Data</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1902,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2120,21 +2129,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2142,6 +2136,30 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3183,914 +3201,912 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE722470-F1EA-0D4F-A63D-489BE1F02E8D}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100:H100"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="85" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="84" t="s">
         <v>444</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86" t="s">
         <v>448</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="84" t="s">
         <v>447</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
     </row>
     <row r="6" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="83">
+      <c r="A6" s="82">
         <v>1</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="83">
+      <c r="A7" s="82">
         <v>2</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="83" t="s">
         <v>450</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="83">
+      <c r="A8" s="82">
         <v>3</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="83" t="s">
         <v>451</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="83">
+      <c r="A9" s="82">
         <v>4</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="83" t="s">
         <v>452</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="84" t="s">
         <v>453</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="83">
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+    </row>
+    <row r="11" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="82">
         <v>1</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="83" t="s">
+        <v>522</v>
+      </c>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="82">
+        <v>2</v>
+      </c>
+      <c r="B12" s="83" t="s">
         <v>466</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="83">
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="82">
+        <v>3</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>467</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="86" t="s">
+        <v>445</v>
+      </c>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86" t="s">
+        <v>454</v>
+      </c>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="84" t="s">
+        <v>447</v>
+      </c>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+    </row>
+    <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="82">
+        <v>1</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>455</v>
+      </c>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="82">
         <v>2</v>
       </c>
-      <c r="B12" s="84" t="s">
-        <v>467</v>
-      </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="83">
+      <c r="B19" s="83" t="s">
+        <v>456</v>
+      </c>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="82">
         <v>3</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B20" s="83" t="s">
+        <v>457</v>
+      </c>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="82">
+        <v>4</v>
+      </c>
+      <c r="B21" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="82">
+        <v>5</v>
+      </c>
+      <c r="B22" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="84" t="s">
+        <v>453</v>
+      </c>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="82">
+        <v>1</v>
+      </c>
+      <c r="B24" s="83" t="s">
         <v>468</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="83"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="81" t="s">
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="82">
+        <v>2</v>
+      </c>
+      <c r="B25" s="83" t="s">
+        <v>469</v>
+      </c>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="82">
+        <v>3</v>
+      </c>
+      <c r="B26" s="83" t="s">
+        <v>460</v>
+      </c>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="78"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81" t="s">
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86" t="s">
         <v>454</v>
       </c>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="80" t="s">
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="84" t="s">
         <v>447</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-    </row>
-    <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="82" t="s">
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+    </row>
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B30" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="83">
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="82">
         <v>1</v>
       </c>
-      <c r="B18" s="84" t="s">
-        <v>455</v>
-      </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="83">
+      <c r="B31" s="83" t="s">
+        <v>461</v>
+      </c>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="82">
         <v>2</v>
       </c>
-      <c r="B19" s="84" t="s">
-        <v>456</v>
-      </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="83">
+      <c r="B32" s="83" t="s">
+        <v>462</v>
+      </c>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="82">
         <v>3</v>
       </c>
-      <c r="B20" s="84" t="s">
-        <v>457</v>
-      </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="83">
+      <c r="B33" s="83" t="s">
+        <v>463</v>
+      </c>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="82">
         <v>4</v>
       </c>
-      <c r="B21" s="84" t="s">
-        <v>458</v>
-      </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="83">
+      <c r="B34" s="83" t="s">
+        <v>464</v>
+      </c>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="82">
         <v>5</v>
       </c>
-      <c r="B22" s="84" t="s">
-        <v>459</v>
-      </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="80" t="s">
+      <c r="B35" s="83" t="s">
+        <v>465</v>
+      </c>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="82">
+        <v>6</v>
+      </c>
+      <c r="B36" s="83" t="s">
+        <v>470</v>
+      </c>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+    </row>
+    <row r="37" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="82">
+        <v>7</v>
+      </c>
+      <c r="B37" s="83" t="s">
+        <v>471</v>
+      </c>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="84" t="s">
         <v>453</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="83">
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+    </row>
+    <row r="39" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="82">
         <v>1</v>
       </c>
-      <c r="B24" s="84" t="s">
-        <v>469</v>
-      </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="83">
+      <c r="B39" s="83" t="s">
+        <v>472</v>
+      </c>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="82">
         <v>2</v>
       </c>
-      <c r="B25" s="84" t="s">
-        <v>470</v>
-      </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="83">
+      <c r="B40" s="83" t="s">
+        <v>473</v>
+      </c>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="82">
         <v>3</v>
       </c>
-      <c r="B26" s="84" t="s">
-        <v>460</v>
-      </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="83"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="81" t="s">
+      <c r="B41" s="83" t="s">
+        <v>474</v>
+      </c>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81" t="s">
-        <v>454</v>
-      </c>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="80" t="s">
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86" t="s">
+        <v>475</v>
+      </c>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="84" t="s">
         <v>447</v>
       </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-    </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="82" t="s">
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+    </row>
+    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B45" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="83">
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="82">
         <v>1</v>
       </c>
-      <c r="B31" s="84" t="s">
-        <v>461</v>
-      </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="83">
+      <c r="B46" s="83" t="s">
+        <v>478</v>
+      </c>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="82">
         <v>2</v>
       </c>
-      <c r="B32" s="84" t="s">
-        <v>462</v>
-      </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="83">
+      <c r="B47" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="82">
         <v>3</v>
       </c>
-      <c r="B33" s="84" t="s">
-        <v>463</v>
-      </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="83">
+      <c r="B48" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="84" t="s">
+        <v>453</v>
+      </c>
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="82">
+        <v>1</v>
+      </c>
+      <c r="B50" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="82">
+        <v>2</v>
+      </c>
+      <c r="B51" s="83" t="s">
+        <v>480</v>
+      </c>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="86" t="s">
+        <v>445</v>
+      </c>
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86" t="s">
+        <v>481</v>
+      </c>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="84" t="s">
+        <v>447</v>
+      </c>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+    </row>
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="84"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="82">
+        <v>1</v>
+      </c>
+      <c r="B56" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="82">
+        <v>2</v>
+      </c>
+      <c r="B57" s="83" t="s">
+        <v>483</v>
+      </c>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="82">
+        <v>3</v>
+      </c>
+      <c r="B58" s="83" t="s">
+        <v>484</v>
+      </c>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="82">
         <v>4</v>
       </c>
-      <c r="B34" s="84" t="s">
-        <v>464</v>
-      </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="83">
+      <c r="B59" s="83" t="s">
+        <v>485</v>
+      </c>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="82">
         <v>5</v>
       </c>
-      <c r="B35" s="84" t="s">
-        <v>465</v>
-      </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="83">
+      <c r="B60" s="46" t="s">
+        <v>486</v>
+      </c>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+    </row>
+    <row r="61" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="82">
         <v>6</v>
       </c>
-      <c r="B36" s="84" t="s">
-        <v>471</v>
-      </c>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-    </row>
-    <row r="37" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="83">
+      <c r="B61" s="83" t="s">
+        <v>487</v>
+      </c>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="82">
         <v>7</v>
       </c>
-      <c r="B37" s="84" t="s">
-        <v>472</v>
-      </c>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="80" t="s">
+      <c r="B62" s="46" t="s">
+        <v>488</v>
+      </c>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="84" t="s">
         <v>453</v>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-    </row>
-    <row r="39" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="83">
+      <c r="B63" s="84"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="88">
         <v>1</v>
       </c>
-      <c r="B39" s="84" t="s">
-        <v>473</v>
-      </c>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="83">
+      <c r="B64" s="46" t="s">
+        <v>489</v>
+      </c>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+    </row>
+    <row r="65" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="88">
         <v>2</v>
       </c>
-      <c r="B40" s="84" t="s">
-        <v>474</v>
-      </c>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="83">
+      <c r="B65" s="83" t="s">
+        <v>490</v>
+      </c>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="88">
         <v>3</v>
       </c>
-      <c r="B41" s="84" t="s">
-        <v>475</v>
-      </c>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="83"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="81" t="s">
-        <v>445</v>
-      </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81" t="s">
-        <v>476</v>
-      </c>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="80" t="s">
-        <v>447</v>
-      </c>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-    </row>
-    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="83">
-        <v>1</v>
-      </c>
-      <c r="B46" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="83">
-        <v>2</v>
-      </c>
-      <c r="B47" s="84" t="s">
-        <v>477</v>
-      </c>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="83">
-        <v>3</v>
-      </c>
-      <c r="B48" s="84" t="s">
-        <v>478</v>
-      </c>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="80" t="s">
-        <v>453</v>
-      </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="83">
-        <v>1</v>
-      </c>
-      <c r="B50" s="84" t="s">
-        <v>480</v>
-      </c>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="83">
-        <v>2</v>
-      </c>
-      <c r="B51" s="84" t="s">
-        <v>481</v>
-      </c>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="83"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="81" t="s">
-        <v>445</v>
-      </c>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81" t="s">
-        <v>482</v>
-      </c>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="80" t="s">
-        <v>447</v>
-      </c>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-    </row>
-    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="80"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="83">
-        <v>1</v>
-      </c>
-      <c r="B56" s="84" t="s">
-        <v>483</v>
-      </c>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="83">
-        <v>2</v>
-      </c>
-      <c r="B57" s="84" t="s">
-        <v>484</v>
-      </c>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="83">
-        <v>3</v>
-      </c>
-      <c r="B58" s="84" t="s">
-        <v>485</v>
-      </c>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="84"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="83">
+      <c r="B66" s="46" t="s">
+        <v>491</v>
+      </c>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="88">
         <v>4</v>
       </c>
-      <c r="B59" s="84" t="s">
-        <v>486</v>
-      </c>
-      <c r="C59" s="84"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="83">
-        <v>5</v>
-      </c>
-      <c r="B60" s="77" t="s">
-        <v>487</v>
-      </c>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-    </row>
-    <row r="61" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="83">
-        <v>6</v>
-      </c>
-      <c r="B61" s="84" t="s">
-        <v>488</v>
-      </c>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="84"/>
-      <c r="H61" s="84"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="83">
-        <v>7</v>
-      </c>
-      <c r="B62" s="77" t="s">
-        <v>489</v>
-      </c>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="80" t="s">
-        <v>453</v>
-      </c>
-      <c r="B63" s="80"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="85">
-        <v>1</v>
-      </c>
-      <c r="B64" s="77" t="s">
-        <v>490</v>
-      </c>
-      <c r="C64" s="77"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="77"/>
-    </row>
-    <row r="65" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="85">
-        <v>2</v>
-      </c>
-      <c r="B65" s="84" t="s">
-        <v>491</v>
-      </c>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="85">
-        <v>3</v>
-      </c>
-      <c r="B66" s="77" t="s">
+      <c r="B67" s="46" t="s">
         <v>492</v>
       </c>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="77"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="85">
-        <v>4</v>
-      </c>
-      <c r="B67" s="77" t="s">
-        <v>493</v>
-      </c>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="85">
-        <v>5</v>
-      </c>
+      <c r="A68" s="80"/>
       <c r="B68" s="77"/>
       <c r="C68" s="77"/>
       <c r="D68" s="77"/>
@@ -4100,482 +4116,494 @@
       <c r="H68" s="77"/>
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="81" t="s">
+      <c r="A69" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="B69" s="81"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81" t="s">
+      <c r="B69" s="86"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="86" t="s">
+        <v>493</v>
+      </c>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="H69" s="86"/>
+    </row>
+    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="84" t="s">
+        <v>447</v>
+      </c>
+      <c r="B70" s="84"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="84"/>
+    </row>
+    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="84"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="82">
+        <v>1</v>
+      </c>
+      <c r="B72" s="83" t="s">
         <v>494</v>
       </c>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="81"/>
-    </row>
-    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="80" t="s">
-        <v>447</v>
-      </c>
-      <c r="B70" s="80"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="80"/>
-      <c r="H70" s="80"/>
-    </row>
-    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="B71" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="80"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="83">
+      <c r="C72" s="83"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
+    </row>
+    <row r="73" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="82">
+        <v>2</v>
+      </c>
+      <c r="B73" s="83" t="s">
+        <v>495</v>
+      </c>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+    </row>
+    <row r="74" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="82">
+        <v>3</v>
+      </c>
+      <c r="B74" s="83" t="s">
+        <v>496</v>
+      </c>
+      <c r="C74" s="83"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="83"/>
+      <c r="H74" s="83"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="82">
+        <v>4</v>
+      </c>
+      <c r="B75" s="83" t="s">
+        <v>497</v>
+      </c>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="83"/>
+      <c r="H75" s="83"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="82">
+        <v>5</v>
+      </c>
+      <c r="B76" s="83" t="s">
+        <v>498</v>
+      </c>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="82">
+        <v>6</v>
+      </c>
+      <c r="B77" s="83" t="s">
+        <v>499</v>
+      </c>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="83"/>
+      <c r="H77" s="83"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="82">
+        <v>7</v>
+      </c>
+      <c r="B78" s="83" t="s">
+        <v>500</v>
+      </c>
+      <c r="C78" s="83"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="83"/>
+      <c r="H78" s="83"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="82">
+        <v>8</v>
+      </c>
+      <c r="B79" s="83" t="s">
+        <v>501</v>
+      </c>
+      <c r="C79" s="83"/>
+      <c r="D79" s="83"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="83"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="82">
+        <v>9</v>
+      </c>
+      <c r="B80" s="83" t="s">
+        <v>505</v>
+      </c>
+      <c r="C80" s="83"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="83"/>
+      <c r="F80" s="83"/>
+      <c r="G80" s="83"/>
+      <c r="H80" s="83"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="82">
+        <v>10</v>
+      </c>
+      <c r="B81" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="C81" s="83"/>
+      <c r="D81" s="83"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="83"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="82">
+        <v>11</v>
+      </c>
+      <c r="B82" s="83" t="s">
+        <v>502</v>
+      </c>
+      <c r="C82" s="83"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="83"/>
+      <c r="H82" s="83"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="84" t="s">
+        <v>453</v>
+      </c>
+      <c r="B83" s="84"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="84"/>
+      <c r="F83" s="84"/>
+      <c r="G83" s="84"/>
+      <c r="H83" s="84"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="82">
         <v>1</v>
       </c>
-      <c r="B72" s="84" t="s">
-        <v>495</v>
-      </c>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
-    </row>
-    <row r="73" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="83">
+      <c r="B84" s="83" t="s">
+        <v>503</v>
+      </c>
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="83"/>
+      <c r="H84" s="83"/>
+    </row>
+    <row r="85" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="82">
         <v>2</v>
       </c>
-      <c r="B73" s="84" t="s">
-        <v>496</v>
-      </c>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="84"/>
-      <c r="H73" s="84"/>
-    </row>
-    <row r="74" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="83">
+      <c r="B85" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="C85" s="83"/>
+      <c r="D85" s="83"/>
+      <c r="E85" s="83"/>
+      <c r="F85" s="83"/>
+      <c r="G85" s="83"/>
+      <c r="H85" s="83"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="82">
         <v>3</v>
       </c>
-      <c r="B74" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="C74" s="84"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="84"/>
-      <c r="H74" s="84"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="83">
+      <c r="B86" s="83" t="s">
+        <v>506</v>
+      </c>
+      <c r="C86" s="83"/>
+      <c r="D86" s="83"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="83"/>
+      <c r="H86" s="83"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="82">
         <v>4</v>
       </c>
-      <c r="B75" s="84" t="s">
-        <v>498</v>
-      </c>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="83">
+      <c r="B87" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="C87" s="83"/>
+      <c r="D87" s="83"/>
+      <c r="E87" s="83"/>
+      <c r="F87" s="83"/>
+      <c r="G87" s="83"/>
+      <c r="H87" s="83"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="82">
         <v>5</v>
       </c>
-      <c r="B76" s="84" t="s">
-        <v>499</v>
-      </c>
-      <c r="C76" s="84"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="84"/>
-      <c r="F76" s="84"/>
-      <c r="G76" s="84"/>
-      <c r="H76" s="84"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="83">
+      <c r="B88" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="C88" s="83"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="83"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="78"/>
+      <c r="B89" s="79"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="79"/>
+      <c r="H89" s="79"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="81" t="s">
+        <v>510</v>
+      </c>
+      <c r="B90" s="81"/>
+      <c r="C90" s="81"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="81"/>
+      <c r="F90" s="81"/>
+      <c r="G90" s="81"/>
+      <c r="H90" s="81"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="82">
+        <v>1</v>
+      </c>
+      <c r="B91" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="C91" s="83"/>
+      <c r="D91" s="83"/>
+      <c r="E91" s="83"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="83"/>
+      <c r="H91" s="83"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="82">
+        <v>2</v>
+      </c>
+      <c r="B92" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="C92" s="83"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="83"/>
+      <c r="H92" s="83"/>
+    </row>
+    <row r="93" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="82">
+        <v>3</v>
+      </c>
+      <c r="B93" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="C93" s="83"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="83"/>
+      <c r="H93" s="83"/>
+    </row>
+    <row r="94" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="82">
+        <v>4</v>
+      </c>
+      <c r="B94" s="83" t="s">
+        <v>514</v>
+      </c>
+      <c r="C94" s="83"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="83"/>
+      <c r="H94" s="83"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="78"/>
+      <c r="B95" s="79"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="79"/>
+      <c r="E95" s="79"/>
+      <c r="F95" s="79"/>
+      <c r="G95" s="79"/>
+      <c r="H95" s="79"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="84" t="s">
+        <v>515</v>
+      </c>
+      <c r="B96" s="84"/>
+      <c r="C96" s="84"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="84"/>
+      <c r="F96" s="84"/>
+      <c r="G96" s="84"/>
+      <c r="H96" s="84"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="82">
+        <v>1</v>
+      </c>
+      <c r="B97" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="C97" s="83"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="83"/>
+      <c r="H97" s="83"/>
+    </row>
+    <row r="98" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="82">
+        <v>2</v>
+      </c>
+      <c r="B98" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="C98" s="83"/>
+      <c r="D98" s="83"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="83"/>
+      <c r="H98" s="83"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="82">
+        <v>3</v>
+      </c>
+      <c r="B99" s="83" t="s">
+        <v>518</v>
+      </c>
+      <c r="C99" s="83"/>
+      <c r="D99" s="83"/>
+      <c r="E99" s="83"/>
+      <c r="F99" s="83"/>
+      <c r="G99" s="83"/>
+      <c r="H99" s="83"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="82">
+        <v>4</v>
+      </c>
+      <c r="B100" s="83" t="s">
+        <v>519</v>
+      </c>
+      <c r="C100" s="83"/>
+      <c r="D100" s="83"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="83"/>
+      <c r="H100" s="83"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="82">
+        <v>5</v>
+      </c>
+      <c r="B101" s="83" t="s">
+        <v>520</v>
+      </c>
+      <c r="C101" s="83"/>
+      <c r="D101" s="83"/>
+      <c r="E101" s="83"/>
+      <c r="F101" s="83"/>
+      <c r="G101" s="83"/>
+      <c r="H101" s="83"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="82">
         <v>6</v>
       </c>
-      <c r="B77" s="84" t="s">
-        <v>500</v>
-      </c>
-      <c r="C77" s="84"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="84"/>
-      <c r="F77" s="84"/>
-      <c r="G77" s="84"/>
-      <c r="H77" s="84"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="83">
-        <v>7</v>
-      </c>
-      <c r="B78" s="84" t="s">
-        <v>501</v>
-      </c>
-      <c r="C78" s="84"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="84"/>
-      <c r="H78" s="84"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="83">
-        <v>8</v>
-      </c>
-      <c r="B79" s="84" t="s">
-        <v>502</v>
-      </c>
-      <c r="C79" s="84"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="84"/>
-      <c r="H79" s="84"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="83">
-        <v>9</v>
-      </c>
-      <c r="B80" s="84" t="s">
-        <v>506</v>
-      </c>
-      <c r="C80" s="84"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="83">
-        <v>10</v>
-      </c>
-      <c r="B81" s="84" t="s">
-        <v>509</v>
-      </c>
-      <c r="C81" s="84"/>
-      <c r="D81" s="84"/>
-      <c r="E81" s="84"/>
-      <c r="F81" s="84"/>
-      <c r="G81" s="84"/>
-      <c r="H81" s="84"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="83">
-        <v>11</v>
-      </c>
-      <c r="B82" s="84" t="s">
-        <v>503</v>
-      </c>
-      <c r="C82" s="84"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="84"/>
-      <c r="G82" s="84"/>
-      <c r="H82" s="84"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="80" t="s">
-        <v>453</v>
-      </c>
-      <c r="B83" s="80"/>
-      <c r="C83" s="80"/>
-      <c r="D83" s="80"/>
-      <c r="E83" s="80"/>
-      <c r="F83" s="80"/>
-      <c r="G83" s="80"/>
-      <c r="H83" s="80"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="83">
-        <v>1</v>
-      </c>
-      <c r="B84" s="84" t="s">
-        <v>504</v>
-      </c>
-      <c r="C84" s="84"/>
-      <c r="D84" s="84"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="84"/>
-      <c r="G84" s="84"/>
-      <c r="H84" s="84"/>
-    </row>
-    <row r="85" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="83">
-        <v>2</v>
-      </c>
-      <c r="B85" s="84" t="s">
-        <v>505</v>
-      </c>
-      <c r="C85" s="84"/>
-      <c r="D85" s="84"/>
-      <c r="E85" s="84"/>
-      <c r="F85" s="84"/>
-      <c r="G85" s="84"/>
-      <c r="H85" s="84"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="83">
-        <v>3</v>
-      </c>
-      <c r="B86" s="84" t="s">
-        <v>507</v>
-      </c>
-      <c r="C86" s="84"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="84"/>
-      <c r="H86" s="84"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="83">
-        <v>4</v>
-      </c>
-      <c r="B87" s="84" t="s">
-        <v>508</v>
-      </c>
-      <c r="C87" s="84"/>
-      <c r="D87" s="84"/>
-      <c r="E87" s="84"/>
-      <c r="F87" s="84"/>
-      <c r="G87" s="84"/>
-      <c r="H87" s="84"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="83">
-        <v>5</v>
-      </c>
-      <c r="B88" s="84" t="s">
-        <v>510</v>
-      </c>
-      <c r="C88" s="84"/>
-      <c r="D88" s="84"/>
-      <c r="E88" s="84"/>
-      <c r="F88" s="84"/>
-      <c r="G88" s="84"/>
-      <c r="H88" s="84"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="83"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="84"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="84"/>
-      <c r="F89" s="84"/>
-      <c r="G89" s="84"/>
-      <c r="H89" s="84"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="78" t="s">
-        <v>511</v>
-      </c>
-      <c r="B90" s="78"/>
-      <c r="C90" s="78"/>
-      <c r="D90" s="78"/>
-      <c r="E90" s="78"/>
-      <c r="F90" s="78"/>
-      <c r="G90" s="78"/>
-      <c r="H90" s="78"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="83">
-        <v>1</v>
-      </c>
-      <c r="B91" s="84" t="s">
-        <v>512</v>
-      </c>
-      <c r="C91" s="84"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="84"/>
-      <c r="F91" s="84"/>
-      <c r="G91" s="84"/>
-      <c r="H91" s="84"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="83">
-        <v>2</v>
-      </c>
-      <c r="B92" s="84" t="s">
-        <v>513</v>
-      </c>
-      <c r="C92" s="84"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="84"/>
-      <c r="F92" s="84"/>
-      <c r="G92" s="84"/>
-      <c r="H92" s="84"/>
-    </row>
-    <row r="93" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="83">
-        <v>3</v>
-      </c>
-      <c r="B93" s="84" t="s">
-        <v>514</v>
-      </c>
-      <c r="C93" s="84"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="84"/>
-      <c r="G93" s="84"/>
-      <c r="H93" s="84"/>
-    </row>
-    <row r="94" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="83">
-        <v>4</v>
-      </c>
-      <c r="B94" s="84" t="s">
-        <v>515</v>
-      </c>
-      <c r="C94" s="84"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="84"/>
-      <c r="F94" s="84"/>
-      <c r="G94" s="84"/>
-      <c r="H94" s="84"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="83"/>
-      <c r="B95" s="84"/>
-      <c r="C95" s="84"/>
-      <c r="D95" s="84"/>
-      <c r="E95" s="84"/>
-      <c r="F95" s="84"/>
-      <c r="G95" s="84"/>
-      <c r="H95" s="84"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="B96" s="80"/>
-      <c r="C96" s="80"/>
-      <c r="D96" s="80"/>
-      <c r="E96" s="80"/>
-      <c r="F96" s="80"/>
-      <c r="G96" s="80"/>
-      <c r="H96" s="80"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="83">
-        <v>1</v>
-      </c>
-      <c r="B97" s="84" t="s">
-        <v>517</v>
-      </c>
-      <c r="C97" s="84"/>
-      <c r="D97" s="84"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="84"/>
-      <c r="G97" s="84"/>
-      <c r="H97" s="84"/>
-    </row>
-    <row r="98" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="83">
-        <v>2</v>
-      </c>
-      <c r="B98" s="84" t="s">
-        <v>518</v>
-      </c>
-      <c r="C98" s="84"/>
-      <c r="D98" s="84"/>
-      <c r="E98" s="84"/>
-      <c r="F98" s="84"/>
-      <c r="G98" s="84"/>
-      <c r="H98" s="84"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="83">
-        <v>3</v>
-      </c>
-      <c r="B99" s="84" t="s">
-        <v>519</v>
-      </c>
-      <c r="C99" s="84"/>
-      <c r="D99" s="84"/>
-      <c r="E99" s="84"/>
-      <c r="F99" s="84"/>
-      <c r="G99" s="84"/>
-      <c r="H99" s="84"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="83"/>
-      <c r="B100" s="84"/>
-      <c r="C100" s="84"/>
-      <c r="D100" s="84"/>
-      <c r="E100" s="84"/>
-      <c r="F100" s="84"/>
-      <c r="G100" s="84"/>
-      <c r="H100" s="84"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="83"/>
-      <c r="B101" s="84"/>
-      <c r="C101" s="84"/>
-      <c r="D101" s="84"/>
-      <c r="E101" s="84"/>
-      <c r="F101" s="84"/>
-      <c r="G101" s="84"/>
-      <c r="H101" s="84"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="83"/>
-      <c r="B102" s="84"/>
-      <c r="C102" s="84"/>
-      <c r="D102" s="84"/>
-      <c r="E102" s="84"/>
-      <c r="F102" s="84"/>
-      <c r="G102" s="84"/>
-      <c r="H102" s="84"/>
+      <c r="B102" s="83" t="s">
+        <v>521</v>
+      </c>
+      <c r="C102" s="83"/>
+      <c r="D102" s="83"/>
+      <c r="E102" s="83"/>
+      <c r="F102" s="83"/>
+      <c r="G102" s="83"/>
+      <c r="H102" s="83"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="83"/>
-      <c r="B103" s="84"/>
-      <c r="C103" s="84"/>
-      <c r="D103" s="84"/>
-      <c r="E103" s="84"/>
-      <c r="F103" s="84"/>
-      <c r="G103" s="84"/>
-      <c r="H103" s="84"/>
+      <c r="A103" s="78"/>
+      <c r="B103" s="79"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="79"/>
+      <c r="E103" s="79"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="79"/>
+      <c r="H103" s="79"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="83"/>
-      <c r="B104" s="84"/>
-      <c r="C104" s="84"/>
-      <c r="D104" s="84"/>
-      <c r="E104" s="84"/>
-      <c r="F104" s="84"/>
-      <c r="G104" s="84"/>
-      <c r="H104" s="84"/>
+      <c r="A104" s="78"/>
+      <c r="B104" s="79"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="79"/>
+      <c r="H104" s="79"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="83"/>
-      <c r="B105" s="84"/>
-      <c r="C105" s="84"/>
-      <c r="D105" s="84"/>
-      <c r="E105" s="84"/>
-      <c r="F105" s="84"/>
-      <c r="G105" s="84"/>
-      <c r="H105" s="84"/>
+      <c r="A105" s="78"/>
+      <c r="B105" s="79"/>
+      <c r="C105" s="79"/>
+      <c r="D105" s="79"/>
+      <c r="E105" s="79"/>
+      <c r="F105" s="79"/>
+      <c r="G105" s="79"/>
+      <c r="H105" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="111">
